--- a/documents/setsuko_rubric.xlsx
+++ b/documents/setsuko_rubric.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.gleiser\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\e.gleiser\documents\github\demonparasol\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -4556,57 +4556,6 @@
     <xf numFmtId="10" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4616,13 +4565,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4643,34 +4601,76 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="155" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4680,15 +4680,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4712,20 +4703,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4740,6 +4731,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4769,36 +4802,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4807,9 +4810,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="155" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="156">
@@ -15038,51 +15038,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
+      <c r="A1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="141"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="124"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="125" t="s">
         <v>888</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="151" t="s">
+      <c r="F2" s="125" t="s">
         <v>889</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="127"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="154"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="156"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="130"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
@@ -15102,39 +15102,39 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="141"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="141"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="134" t="s">
         <v>890</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="148" t="s">
+      <c r="F6" s="134" t="s">
         <v>892</v>
       </c>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="150"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="136"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="131" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="35"/>
@@ -15145,50 +15145,50 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="148" t="s">
+      <c r="F7" s="134" t="s">
         <v>893</v>
       </c>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="146"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="148" t="s">
+      <c r="F8" s="134" t="s">
         <v>894</v>
       </c>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="150"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="136"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="146"/>
+      <c r="K8" s="132"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="134" t="s">
         <v>891</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="136"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="148" t="s">
+      <c r="F9" s="134" t="s">
         <v>895</v>
       </c>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="136"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="147"/>
+      <c r="K9" s="133"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15206,17 +15206,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="141"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="139" t="s">
+      <c r="F11" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="141"/>
+      <c r="G11" s="124"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>-0.08</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="145" t="s">
+      <c r="K12" s="131" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
@@ -15285,7 +15285,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="146"/>
+      <c r="K13" s="132"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15312,7 +15312,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="147"/>
+      <c r="K14" s="133"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15366,10 +15366,10 @@
       <c r="C17" s="45"/>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="139" t="s">
+      <c r="F17" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="141"/>
+      <c r="G17" s="124"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -15387,16 +15387,16 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="137" t="s">
         <v>903</v>
       </c>
-      <c r="H18" s="129"/>
+      <c r="H18" s="138"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>-0.1</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="145" t="s">
+      <c r="K18" s="131" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -15410,16 +15410,16 @@
       <c r="F19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="135"/>
+      <c r="H19" s="140"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="147"/>
+      <c r="K19" s="133"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15447,7 +15447,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="142" t="s">
+      <c r="F21" s="155" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="55"/>
@@ -15463,17 +15463,17 @@
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="143"/>
+      <c r="F22" s="156"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="122">
+      <c r="I22" s="141">
         <f>I20+I15</f>
         <v>0.67</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="124" t="s">
+      <c r="K22" s="143" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="35"/>
@@ -15484,14 +15484,14 @@
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="143"/>
+      <c r="F23" s="156"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="123"/>
+      <c r="I23" s="142"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="125"/>
+      <c r="K23" s="144"/>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15500,7 +15500,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="144"/>
+      <c r="F24" s="157"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15528,12 +15528,12 @@
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="126" t="s">
+      <c r="F26" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
@@ -15544,12 +15544,12 @@
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="127" t="s">
+      <c r="F27" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="129"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="138"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
@@ -15560,10 +15560,10 @@
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="132"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="149"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
@@ -15574,10 +15574,10 @@
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="149"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
@@ -15588,28 +15588,28 @@
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="132"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="149"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="136" t="s">
+      <c r="A31" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="206" t="s">
+      <c r="B31" s="152"/>
+      <c r="C31" s="153" t="s">
         <v>902</v>
       </c>
-      <c r="D31" s="138"/>
+      <c r="D31" s="154"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="135"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="140"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
@@ -15630,12 +15630,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15651,13 +15652,12 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15722,65 +15722,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="195" t="s">
         <v>700</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="185" t="s">
         <v>683</v>
       </c>
-      <c r="D1" s="200"/>
-      <c r="E1" s="199" t="s">
+      <c r="D1" s="186"/>
+      <c r="E1" s="185" t="s">
         <v>684</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="199" t="s">
+      <c r="F1" s="186"/>
+      <c r="G1" s="185" t="s">
         <v>685</v>
       </c>
-      <c r="H1" s="200"/>
+      <c r="H1" s="186"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185"/>
+      <c r="A2" s="196"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="D2" s="202"/>
-      <c r="E2" s="201" t="s">
+      <c r="D2" s="188"/>
+      <c r="E2" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="201" t="s">
+      <c r="F2" s="188"/>
+      <c r="G2" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="J2" s="187" t="s">
+      <c r="H2" s="188"/>
+      <c r="J2" s="198" t="s">
         <v>701</v>
       </c>
-      <c r="K2" s="188"/>
-      <c r="L2" s="189"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="200"/>
     </row>
     <row r="3" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="186"/>
+      <c r="A3" s="197"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="197">
+      <c r="C3" s="189">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),0.01))))</f>
         <v>0.67</v>
       </c>
-      <c r="D3" s="198"/>
-      <c r="E3" s="197">
+      <c r="D3" s="190"/>
+      <c r="E3" s="189">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),0.01))))</f>
         <v>0.67</v>
       </c>
-      <c r="F3" s="198"/>
-      <c r="G3" s="197">
+      <c r="F3" s="190"/>
+      <c r="G3" s="189">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),0.01))))</f>
         <v>0.67</v>
       </c>
-      <c r="H3" s="198"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="192"/>
+      <c r="H3" s="190"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="203"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -15800,18 +15800,18 @@
         <v>686</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="122" t="s">
         <v>687</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="139" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="122" t="s">
         <v>688</v>
       </c>
-      <c r="F5" s="141"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="124"/>
+      <c r="G5" s="122" t="s">
         <v>689</v>
       </c>
-      <c r="H5" s="141"/>
+      <c r="H5" s="124"/>
       <c r="J5" s="77" t="s">
         <v>702</v>
       </c>
@@ -15826,21 +15826,21 @@
         <v>0.67</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="194">
+      <c r="C6" s="192">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="195"/>
-      <c r="E6" s="194">
+      <c r="D6" s="193"/>
+      <c r="E6" s="192">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="195"/>
-      <c r="G6" s="194">
+      <c r="F6" s="193"/>
+      <c r="G6" s="192">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="195"/>
+      <c r="H6" s="193"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
         <v>5.1249999999999865E-2</v>
@@ -15854,18 +15854,18 @@
     <row r="7" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196" t="s">
+      <c r="D7" s="194"/>
+      <c r="E7" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196" t="s">
+      <c r="F7" s="194"/>
+      <c r="G7" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H7" s="196"/>
+      <c r="H7" s="194"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
@@ -15895,7 +15895,7 @@
       <c r="H8" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="203" t="s">
+      <c r="J8" s="204" t="s">
         <v>704</v>
       </c>
       <c r="K8" s="3"/>
@@ -15933,7 +15933,7 @@
         <f>B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="204"/>
+      <c r="J9" s="205"/>
       <c r="K9" s="3"/>
       <c r="L9" s="94" t="s">
         <v>706</v>
@@ -15969,7 +15969,7 @@
         <f t="shared" ref="H10:H14" si="2">B10*G10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="205"/>
+      <c r="J10" s="206"/>
       <c r="K10" s="3"/>
       <c r="L10" s="95" t="s">
         <v>707</v>
@@ -16039,7 +16039,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="145" t="s">
+      <c r="J12" s="131" t="s">
         <v>715</v>
       </c>
       <c r="K12" s="31"/>
@@ -16077,7 +16077,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="146"/>
+      <c r="J13" s="132"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>708</v>
@@ -16113,7 +16113,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="146"/>
+      <c r="J14" s="132"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>709</v>
@@ -16143,7 +16143,7 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="146"/>
+      <c r="J15" s="132"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>710</v>
@@ -16152,19 +16152,19 @@
     <row r="16" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="193" t="s">
+      <c r="C16" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193" t="s">
+      <c r="D16" s="191"/>
+      <c r="E16" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193" t="s">
+      <c r="F16" s="191"/>
+      <c r="G16" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H16" s="193"/>
-      <c r="J16" s="146"/>
+      <c r="H16" s="191"/>
+      <c r="J16" s="132"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>711</v>
@@ -16195,7 +16195,7 @@
       <c r="H17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="146"/>
+      <c r="J17" s="132"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>712</v>
@@ -16231,7 +16231,7 @@
         <f>B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="146"/>
+      <c r="J18" s="132"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>713</v>
@@ -16267,7 +16267,7 @@
         <f t="shared" ref="H19:H23" si="5">B19*G19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="147"/>
+      <c r="J19" s="133"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>714</v>
@@ -16425,18 +16425,18 @@
     <row r="25" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="193" t="s">
+      <c r="C25" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193" t="s">
+      <c r="D25" s="191"/>
+      <c r="E25" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193" t="s">
+      <c r="F25" s="191"/>
+      <c r="G25" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H25" s="193"/>
+      <c r="H25" s="191"/>
     </row>
     <row r="26" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -16678,18 +16678,18 @@
     <row r="34" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="193" t="s">
+      <c r="C34" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193" t="s">
+      <c r="D34" s="191"/>
+      <c r="E34" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193" t="s">
+      <c r="F34" s="191"/>
+      <c r="G34" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H34" s="193"/>
+      <c r="H34" s="191"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -16931,18 +16931,18 @@
     <row r="43" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="193" t="s">
+      <c r="C43" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D43" s="193"/>
-      <c r="E43" s="193" t="s">
+      <c r="D43" s="191"/>
+      <c r="E43" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F43" s="193"/>
-      <c r="G43" s="193" t="s">
+      <c r="F43" s="191"/>
+      <c r="G43" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H43" s="193"/>
+      <c r="H43" s="191"/>
     </row>
     <row r="44" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -17184,18 +17184,18 @@
     <row r="52" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="193" t="s">
+      <c r="C52" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D52" s="193"/>
-      <c r="E52" s="193" t="s">
+      <c r="D52" s="191"/>
+      <c r="E52" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F52" s="193"/>
-      <c r="G52" s="193" t="s">
+      <c r="F52" s="191"/>
+      <c r="G52" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H52" s="193"/>
+      <c r="H52" s="191"/>
     </row>
     <row r="53" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -17436,27 +17436,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -17473,6 +17452,27 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17514,44 +17514,44 @@
       <c r="F1" s="163"/>
     </row>
     <row r="2" spans="1:6" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="166"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
     </row>
     <row r="3" spans="1:6" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="169"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="158" t="s">
         <v>719</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="166"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="160"/>
     </row>
     <row r="5" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="172"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="169"/>
     </row>
     <row r="6" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
@@ -17580,10 +17580,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="168"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17599,10 +17599,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="158"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17618,10 +17618,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="174"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17637,10 +17637,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="174" t="s">
+      <c r="A11" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="174"/>
+      <c r="B11" s="173"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17656,10 +17656,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="174"/>
+      <c r="B12" s="173"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17675,10 +17675,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="158"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17694,10 +17694,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="157" t="s">
+      <c r="A14" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="158"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17713,10 +17713,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="160"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17733,11 +17733,11 @@
     </row>
     <row r="16" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -17768,76 +17768,81 @@
       <c r="A19" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="164" t="s">
+      <c r="B19" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="166"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="160"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="164" t="s">
+      <c r="B20" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="166"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="160"/>
     </row>
     <row r="21" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="164" t="s">
+      <c r="B21" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="166"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
     </row>
     <row r="22" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="164" t="s">
+      <c r="B22" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="166"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
     </row>
     <row r="23" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="164" t="s">
+      <c r="B23" s="158" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="166"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="160"/>
     </row>
     <row r="24" spans="1:6" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="166"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -17854,11 +17859,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17917,7 +17917,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="176" t="s">
         <v>878</v>
       </c>
       <c r="D2" s="66">
@@ -17940,7 +17940,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="180"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
         <v>11.5</v>
@@ -17961,7 +17961,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="180"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>7</v>
@@ -17982,7 +17982,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="180"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>10</v>
@@ -18003,7 +18003,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="180"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>6.5</v>
@@ -18024,7 +18024,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="180"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>6.5</v>
@@ -18045,7 +18045,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="180"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>1</v>
@@ -18060,11 +18060,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="181"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -18079,10 +18079,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="181" t="s">
         <v>718</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>860</v>
       </c>
@@ -18205,10 +18205,10 @@
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="175" t="s">
+      <c r="A17" s="181" t="s">
         <v>732</v>
       </c>
-      <c r="B17" s="176"/>
+      <c r="B17" s="182"/>
       <c r="C17" s="8" t="s">
         <v>862</v>
       </c>
@@ -18427,10 +18427,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="183" t="s">
         <v>733</v>
       </c>
-      <c r="B29" s="178"/>
+      <c r="B29" s="184"/>
       <c r="C29" s="8" t="s">
         <v>886</v>
       </c>
@@ -18913,10 +18913,10 @@
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="175" t="s">
+      <c r="A56" s="181" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="176"/>
+      <c r="B56" s="182"/>
       <c r="C56" s="8" t="s">
         <v>88</v>
       </c>
@@ -19153,10 +19153,10 @@
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="175" t="s">
+      <c r="A69" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="176"/>
+      <c r="B69" s="182"/>
       <c r="C69" s="8" t="s">
         <v>88</v>
       </c>
@@ -19315,10 +19315,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="175" t="s">
+      <c r="A78" s="181" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="176"/>
+      <c r="B78" s="182"/>
       <c r="C78" s="8" t="s">
         <v>88</v>
       </c>
@@ -19429,10 +19429,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="175" t="s">
+      <c r="A84" s="181" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="176"/>
+      <c r="B84" s="182"/>
       <c r="C84" s="8" t="s">
         <v>88</v>
       </c>
@@ -19679,10 +19679,10 @@
       <c r="F96" s="60"/>
     </row>
     <row r="97" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="175" t="s">
+      <c r="A97" s="181" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="176"/>
+      <c r="B97" s="182"/>
       <c r="C97" s="8" t="s">
         <v>88</v>
       </c>
@@ -19773,10 +19773,10 @@
       <c r="F101" s="60"/>
     </row>
     <row r="102" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="175" t="s">
+      <c r="A102" s="181" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="176"/>
+      <c r="B102" s="182"/>
       <c r="C102" s="8" t="s">
         <v>88</v>
       </c>
@@ -19921,10 +19921,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="175" t="s">
+      <c r="A110" s="181" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="176"/>
+      <c r="B110" s="182"/>
       <c r="C110" s="8" t="s">
         <v>88</v>
       </c>
@@ -19993,10 +19993,10 @@
       <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="175" t="s">
+      <c r="A114" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="176"/>
+      <c r="B114" s="182"/>
       <c r="C114" s="8" t="s">
         <v>88</v>
       </c>
@@ -20065,10 +20065,10 @@
       <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="175" t="s">
+      <c r="A118" s="181" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="176"/>
+      <c r="B118" s="182"/>
       <c r="C118" s="8" t="s">
         <v>816</v>
       </c>
@@ -20228,11 +20228,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -20242,6 +20237,11 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A14:A31 A95:A107 A56:A80 A82:A87">
     <cfRule type="beginsWith" dxfId="746" priority="306" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -21233,7 +21233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
@@ -21276,7 +21276,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="176" t="s">
         <v>854</v>
       </c>
       <c r="D2" s="66">
@@ -21299,7 +21299,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="180"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -21320,7 +21320,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="180"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -21341,7 +21341,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="180"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>6</v>
@@ -21362,7 +21362,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="180"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -21383,7 +21383,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="180"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>13</v>
@@ -21404,7 +21404,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="180"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>9</v>
@@ -21419,11 +21419,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="181"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -21438,10 +21438,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="181" t="s">
         <v>803</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>855</v>
       </c>
@@ -21528,10 +21528,10 @@
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="175" t="s">
+      <c r="A15" s="181" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="176"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="8" t="s">
         <v>88</v>
       </c>
@@ -21680,10 +21680,10 @@
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="175" t="s">
+      <c r="A23" s="181" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="176"/>
+      <c r="B23" s="182"/>
       <c r="C23" s="8" t="s">
         <v>88</v>
       </c>
@@ -21828,10 +21828,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="181" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="176"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="8" t="s">
         <v>88</v>
       </c>
@@ -22314,10 +22314,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="175" t="s">
+      <c r="A57" s="181" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="176"/>
+      <c r="B57" s="182"/>
       <c r="C57" s="73" t="s">
         <v>825</v>
       </c>
@@ -22714,10 +22714,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="175" t="s">
+      <c r="A78" s="181" t="s">
         <v>299</v>
       </c>
-      <c r="B78" s="176"/>
+      <c r="B78" s="182"/>
       <c r="C78" s="8" t="s">
         <v>88</v>
       </c>
@@ -23713,7 +23713,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="176" t="s">
         <v>823</v>
       </c>
       <c r="D2" s="66">
@@ -23736,7 +23736,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="180"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23757,7 +23757,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="180"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23778,7 +23778,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="180"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>5</v>
@@ -23799,7 +23799,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="180"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23820,7 +23820,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="180"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>6</v>
@@ -23841,7 +23841,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="180"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>9</v>
@@ -23856,11 +23856,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="181"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23875,10 +23875,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="181" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>88</v>
       </c>
@@ -24101,10 +24101,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="181" t="s">
         <v>528</v>
       </c>
-      <c r="B22" s="176"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="8" t="s">
         <v>88</v>
       </c>
@@ -24263,10 +24263,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="181" t="s">
         <v>544</v>
       </c>
-      <c r="B31" s="176"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="8" t="s">
         <v>88</v>
       </c>
@@ -24491,10 +24491,10 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="175" t="s">
+      <c r="A43" s="181" t="s">
         <v>655</v>
       </c>
-      <c r="B43" s="176"/>
+      <c r="B43" s="182"/>
       <c r="C43" s="8" t="s">
         <v>88</v>
       </c>
@@ -24761,7 +24761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -24804,7 +24804,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="176" t="s">
         <v>379</v>
       </c>
       <c r="D2" s="66">
@@ -24827,7 +24827,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="180"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24848,7 +24848,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="180"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24869,7 +24869,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="180"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -24890,7 +24890,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="180"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -24911,7 +24911,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="180"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>7</v>
@@ -24932,7 +24932,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="180"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>5</v>
@@ -24947,11 +24947,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="181"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>3</v>
@@ -24966,10 +24966,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="181" t="s">
         <v>380</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>88</v>
       </c>
@@ -25078,10 +25078,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="181" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="176"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="8" t="s">
         <v>88</v>
       </c>
@@ -25186,10 +25186,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="181" t="s">
         <v>402</v>
       </c>
-      <c r="B22" s="176"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="8" t="s">
         <v>819</v>
       </c>
@@ -25312,10 +25312,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="181" t="s">
         <v>415</v>
       </c>
-      <c r="B29" s="176"/>
+      <c r="B29" s="182"/>
       <c r="C29" s="8" t="s">
         <v>817</v>
       </c>
@@ -25456,10 +25456,10 @@
       <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="175" t="s">
+      <c r="A37" s="181" t="s">
         <v>430</v>
       </c>
-      <c r="B37" s="176"/>
+      <c r="B37" s="182"/>
       <c r="C37" s="8" t="s">
         <v>818</v>
       </c>
@@ -25582,10 +25582,10 @@
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="175" t="s">
+      <c r="A44" s="181" t="s">
         <v>443</v>
       </c>
-      <c r="B44" s="176"/>
+      <c r="B44" s="182"/>
       <c r="C44" s="8" t="s">
         <v>88</v>
       </c>
@@ -26274,7 +26274,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="176" t="s">
         <v>468</v>
       </c>
       <c r="D2" s="66">
@@ -26297,7 +26297,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="180"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -26318,7 +26318,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="180"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -26339,7 +26339,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="180"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>7</v>
@@ -26360,7 +26360,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="180"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>1</v>
@@ -26381,7 +26381,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="180"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>13</v>
@@ -26402,7 +26402,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="180"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>5</v>
@@ -26417,11 +26417,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="181"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>2</v>
@@ -26436,10 +26436,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="181" t="s">
         <v>469</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>88</v>
       </c>
@@ -26800,10 +26800,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="181" t="s">
         <v>505</v>
       </c>
-      <c r="B29" s="176"/>
+      <c r="B29" s="182"/>
       <c r="C29" s="8" t="s">
         <v>814</v>
       </c>
@@ -27020,10 +27020,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="181" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="176"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="8" t="s">
         <v>88</v>
       </c>
@@ -27184,10 +27184,10 @@
       <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="175" t="s">
+      <c r="A50" s="181" t="s">
         <v>583</v>
       </c>
-      <c r="B50" s="176"/>
+      <c r="B50" s="182"/>
       <c r="C50" s="73" t="s">
         <v>815</v>
       </c>
@@ -27765,7 +27765,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="176" t="s">
         <v>604</v>
       </c>
       <c r="D2" s="66">
@@ -27788,7 +27788,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="180"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27809,7 +27809,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="180"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27830,7 +27830,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="180"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -27851,7 +27851,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="180"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27872,7 +27872,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="180"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>8</v>
@@ -27893,7 +27893,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="180"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>3.5</v>
@@ -27908,11 +27908,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="181"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27927,10 +27927,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="181" t="s">
         <v>605</v>
       </c>
-      <c r="B10" s="176"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="73" t="s">
         <v>808</v>
       </c>
@@ -28151,10 +28151,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="181" t="s">
         <v>628</v>
       </c>
-      <c r="B22" s="176"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="8" t="s">
         <v>88</v>
       </c>
@@ -28371,10 +28371,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="181" t="s">
         <v>804</v>
       </c>
-      <c r="B34" s="176"/>
+      <c r="B34" s="182"/>
       <c r="C34" s="8" t="s">
         <v>809</v>
       </c>
@@ -28499,10 +28499,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="181" t="s">
         <v>674</v>
       </c>
-      <c r="B41" s="176"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="8" t="s">
         <v>88</v>
       </c>
@@ -28935,65 +28935,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="195" t="s">
         <v>699</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="185" t="s">
         <v>683</v>
       </c>
-      <c r="D1" s="200"/>
-      <c r="E1" s="199" t="s">
+      <c r="D1" s="186"/>
+      <c r="E1" s="185" t="s">
         <v>684</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="199" t="s">
+      <c r="F1" s="186"/>
+      <c r="G1" s="185" t="s">
         <v>685</v>
       </c>
-      <c r="H1" s="200"/>
+      <c r="H1" s="186"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185"/>
+      <c r="A2" s="196"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="D2" s="202"/>
-      <c r="E2" s="201" t="s">
+      <c r="D2" s="188"/>
+      <c r="E2" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="201" t="s">
+      <c r="F2" s="188"/>
+      <c r="G2" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="J2" s="187" t="s">
+      <c r="H2" s="188"/>
+      <c r="J2" s="198" t="s">
         <v>701</v>
       </c>
-      <c r="K2" s="188"/>
-      <c r="L2" s="189"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="200"/>
     </row>
     <row r="3" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="186"/>
+      <c r="A3" s="197"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="197">
+      <c r="C3" s="189">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),0.01))))</f>
         <v>0.17</v>
       </c>
-      <c r="D3" s="198"/>
-      <c r="E3" s="197">
+      <c r="D3" s="190"/>
+      <c r="E3" s="189">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),0.01))))</f>
         <v>0.72</v>
       </c>
-      <c r="F3" s="198"/>
-      <c r="G3" s="197">
+      <c r="F3" s="190"/>
+      <c r="G3" s="189">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),0.01))))</f>
         <v>0.96</v>
       </c>
-      <c r="H3" s="198"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="192"/>
+      <c r="H3" s="190"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="203"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -29010,19 +29010,19 @@
         <v>686</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="122" t="s">
         <v>687</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="139" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="122" t="s">
         <v>688</v>
       </c>
-      <c r="F5" s="141"/>
-      <c r="G5" s="139" t="s">
+      <c r="F5" s="124"/>
+      <c r="G5" s="122" t="s">
         <v>689</v>
       </c>
-      <c r="H5" s="141"/>
-      <c r="J5" s="145" t="s">
+      <c r="H5" s="124"/>
+      <c r="J5" s="131" t="s">
         <v>715</v>
       </c>
       <c r="K5" s="31"/>
@@ -29036,22 +29036,22 @@
         <v>0.67</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="194">
+      <c r="C6" s="192">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>-0.49874999999999992</v>
       </c>
-      <c r="D6" s="195"/>
-      <c r="E6" s="194">
+      <c r="D6" s="193"/>
+      <c r="E6" s="192">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>5.1249999999999865E-2</v>
       </c>
-      <c r="F6" s="195"/>
-      <c r="G6" s="194">
+      <c r="F6" s="193"/>
+      <c r="G6" s="192">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0.36625000000000008</v>
       </c>
-      <c r="H6" s="195"/>
-      <c r="J6" s="146"/>
+      <c r="H6" s="193"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>708</v>
@@ -29060,19 +29060,19 @@
     <row r="7" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196" t="s">
+      <c r="D7" s="194"/>
+      <c r="E7" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196" t="s">
+      <c r="F7" s="194"/>
+      <c r="G7" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H7" s="196"/>
-      <c r="J7" s="146"/>
+      <c r="H7" s="194"/>
+      <c r="J7" s="132"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>709</v>
@@ -29103,7 +29103,7 @@
       <c r="H8" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="146"/>
+      <c r="J8" s="132"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>710</v>
@@ -29139,7 +29139,7 @@
         <f>B9*G9</f>
         <v>-0.16</v>
       </c>
-      <c r="J9" s="146"/>
+      <c r="J9" s="132"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>711</v>
@@ -29175,7 +29175,7 @@
         <f t="shared" ref="H10:H14" si="2">B10*G10</f>
         <v>-5.7500000000000002E-2</v>
       </c>
-      <c r="J10" s="146"/>
+      <c r="J10" s="132"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>712</v>
@@ -29211,7 +29211,7 @@
         <f t="shared" si="2"/>
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="J11" s="146"/>
+      <c r="J11" s="132"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>713</v>
@@ -29247,7 +29247,7 @@
         <f t="shared" si="2"/>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J12" s="147"/>
+      <c r="J12" s="133"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>714</v>
@@ -29343,18 +29343,18 @@
     <row r="16" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="193" t="s">
+      <c r="C16" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193" t="s">
+      <c r="D16" s="191"/>
+      <c r="E16" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193" t="s">
+      <c r="F16" s="191"/>
+      <c r="G16" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H16" s="193"/>
+      <c r="H16" s="191"/>
     </row>
     <row r="17" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -29596,18 +29596,18 @@
     <row r="25" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="193" t="s">
+      <c r="C25" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193" t="s">
+      <c r="D25" s="191"/>
+      <c r="E25" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193" t="s">
+      <c r="F25" s="191"/>
+      <c r="G25" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H25" s="193"/>
+      <c r="H25" s="191"/>
     </row>
     <row r="26" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -29849,18 +29849,18 @@
     <row r="34" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="193" t="s">
+      <c r="C34" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193" t="s">
+      <c r="D34" s="191"/>
+      <c r="E34" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193" t="s">
+      <c r="F34" s="191"/>
+      <c r="G34" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H34" s="193"/>
+      <c r="H34" s="191"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -30102,18 +30102,18 @@
     <row r="43" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="193" t="s">
+      <c r="C43" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D43" s="193"/>
-      <c r="E43" s="193" t="s">
+      <c r="D43" s="191"/>
+      <c r="E43" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F43" s="193"/>
-      <c r="G43" s="193" t="s">
+      <c r="F43" s="191"/>
+      <c r="G43" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H43" s="193"/>
+      <c r="H43" s="191"/>
     </row>
     <row r="44" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -30355,18 +30355,18 @@
     <row r="52" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="193" t="s">
+      <c r="C52" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D52" s="193"/>
-      <c r="E52" s="193" t="s">
+      <c r="D52" s="191"/>
+      <c r="E52" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F52" s="193"/>
-      <c r="G52" s="193" t="s">
+      <c r="F52" s="191"/>
+      <c r="G52" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H52" s="193"/>
+      <c r="H52" s="191"/>
     </row>
     <row r="53" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -30607,26 +30607,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -30643,6 +30623,26 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/documents/setsuko_rubric.xlsx
+++ b/documents/setsuko_rubric.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\e.gleiser\documents\github\demonparasol\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garrett\Documents\GitHub\DemonParasol\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="927">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -200,6 +200,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>gamename</t>
@@ -209,6 +210,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> appears below, substitute your actual game name (or a shortened version of it that works better for a filename) with any spaces in the name removed. Do not use your team name for this.</t>
@@ -221,6 +223,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Submit to Game Submissions Folder:</t>
@@ -230,6 +233,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Your entire submission must be copied to the "Game Submissions" folder on your networked drives list. Do not submit to the courses drive, or to your personal submission folder. </t>
@@ -240,6 +244,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">THIS IS DIFFERENT FROM PREVIOUS SEMESTERS. </t>
@@ -249,6 +254,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Your submission must be in a folder named "GAM200_gamename" (or "GAM300_gamename", "GAM400_gamename", etc.). Do not put the section letter in the folder name and do not zip up or compress the folder (only the source folder is zipped).</t>
@@ -263,6 +269,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_rubric.xlsx</t>
@@ -277,6 +284,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_source.zip</t>
@@ -291,6 +299,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_setup.exe</t>
@@ -305,6 +314,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_editor_setup.exe</t>
@@ -319,6 +329,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_TDD.docx</t>
@@ -333,6 +344,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_GDD.docx</t>
@@ -348,6 +360,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>gamename</t>
@@ -357,6 +370,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">_TDD.ods or </t>
@@ -367,6 +381,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>gamename</t>
@@ -376,6 +391,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_TDD.pdf).</t>
@@ -391,6 +407,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Send an Email:</t>
@@ -400,6 +417,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> After submitting, you must send a short email to </t>
@@ -410,6 +428,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>ellen.beeman@digipen.edu</t>
@@ -419,6 +438,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, with the following subject line “GAM200 </t>
@@ -429,6 +449,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>gamename</t>
@@ -438,6 +459,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Submitted” (or GAM300, GAM400, etc.). </t>
@@ -449,6 +471,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>This email must be CCed to all other members of your team.</t>
@@ -465,6 +488,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>include copyright notices in each code file</t>
@@ -474,6 +498,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>, and put who wrote the code near the top of the file. Make sure you do not put any .pdb files, .obj files, .pch files, or other build artifacts in this zipped file. The easy way to do this is to use the SVN export command to get a clean folder of your entire source tree without any extraneous files.</t>
@@ -490,6 +515,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Make sure you test the installer.</t>
@@ -499,6 +525,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> You must include the DigiPen EULA in the installer and you must have a full uninstall option for the game. Make sure you include all necessary DLLs and drivers—check for them being already installed if possible, otherwise, install them yourself or launch the installer for them after the game is done. Make sure it works on a machine that doesn’t have Visual Studio installed, doesn’t have all the latest DLLs, etc. installed. There are machines in the back of Edison for this. Common mistakes are not installing specific DLLs for D3DX that you linked to or accidentally linking to debug versions of DLLs that non-developer machines will not have. Even if you have a stand-alone executable for your game, you still must use an installer (even for Zero Engine games).</t>
@@ -517,6 +544,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>gamename</t>
@@ -526,6 +554,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">_GDD.ods or </t>
@@ -536,6 +565,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>gamename</t>
@@ -545,6 +575,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_GDD.pdf).</t>
@@ -564,6 +595,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Do not convert this file into an OpenOffice spreadsheet (or any other format) and do not change it in any way (except to fill in the data for your game).</t>
@@ -2514,6 +2546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Grade Clamping                    </t>
@@ -2523,6 +2556,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Once a nominal total grade goes above a 95%, it gets harder to increase the actual final grade, as shown to the right. This calculation is done automatically in final coder/designer/artist grades above.</t>
@@ -2544,6 +2578,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Verifier:</t>
@@ -2553,6 +2588,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> There is a verifier program on the Game Central page that you can use to verify that you have the folder structure and file names correct. </t>
@@ -2564,6 +2600,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>If the verifier says you have something wrong, you will get one or more submissions penalties, as listed below.</t>
@@ -2603,6 +2640,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>this will be granted as long as you are using compressed formats for graphics and audio, and aren't doing anything foolish that bloats the size of your project</t>
@@ -2612,6 +2650,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>. Using some WAV files for sound effects (but not music) is generally okay, as long as they are not too large. Watch out for using textures that are way larger than necessary and eat up megabytes of unnecessary space. If you are using DirectX, only include the .cab files that you actually need, which is a small fraction of all the .cab files available (in particular, you don't need all the ones for Windows XP).</t>
@@ -2861,6 +2900,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Details</t>
@@ -2871,6 +2911,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (a well-crafted audioscape of sound effects can take the place of music in some cases)</t>
@@ -2885,6 +2926,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2895,6 +2937,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(this entire section is Not Applicable if your game has no recorded dialog)</t>
@@ -2922,6 +2965,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (includes animations, parallax, particles, glows, fades, hit effects, drop shadows, etc.)</t>
@@ -2934,6 +2978,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Details</t>
@@ -2944,6 +2989,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (in-game UI such as cursors, labels, integrated UI on characters or backgrounds, etc.)</t>
@@ -2959,6 +3005,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (this section only counts if networked play is the primary way your game is played)</t>
@@ -2974,6 +3021,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (in a narrative sense, not in an art or gameplay sense)</t>
@@ -2989,6 +3037,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (just as written, not as recorded or acted)</t>
@@ -3004,6 +3053,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (this means a narrative setting, not art or audio)</t>
@@ -3031,6 +3081,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Details</t>
@@ -3041,6 +3092,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (note that a game does not have to have more than one episode)</t>
@@ -3139,6 +3191,7 @@
         <sz val="14"/>
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>www.zenrhino.org/mgd</t>
@@ -3148,6 +3201,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> website. In particular, “level” does not always equal “episode”--make sure you know what constitutes and actual episode for your game.</t>
@@ -3162,6 +3216,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3172,6 +3227,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(see GameCentral for an explanation of the the game pitch document and the GDD)</t>
@@ -3199,6 +3255,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (see GameCentral for an explanation of the TDD)</t>
@@ -3217,6 +3274,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (a stand-alone editor must have an installer and everything in this section applies to it as well; if one of the two installers fails a requirement, it will be marked as "Partial")</t>
@@ -3271,6 +3329,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Note that a Main Menu is not required in any way.</t>
@@ -3280,6 +3339,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> You can go directly in to your game after displaying logos and such. Only the Pause Menu is actually required.</t>
@@ -3298,6 +3358,7 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Note that the Configuration, Startup, and Transitions sections are not in the rubric for the first semester.</t>
@@ -3334,6 +3395,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (using a pre-made editor for your levels, such as Tiled, the Zero Editor, or even Maya, can fulfill the required/basic TCRs in this section, but not the advanced/professional/innovative ones; if dynamic content generation is used instead of an editor, talk to your instructor)</t>
@@ -3391,9 +3453,6 @@
     <t>Zero Engine</t>
   </si>
   <si>
-    <t>Used to be professional. In the Dungeon the floor in the main room lights up to indicated completed puzzles. All of this is color coordinated.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Different Phases of the Dungeon Boss (Intro/Music Change), Warings to the Player when off the path, </t>
   </si>
   <si>
@@ -3425,6 +3484,42 @@
   </si>
   <si>
     <t>Some sound effects are custom made</t>
+  </si>
+  <si>
+    <t>Text has been edited multiple times for clarity and grammer</t>
+  </si>
+  <si>
+    <t>Games theme is of innocence and growing up</t>
+  </si>
+  <si>
+    <t>The setting is post World War II Japan. There are a few references to this timeperiod throughout the game and the design of the structures and character portraits are based on authentic Japanese clothing from the period.</t>
+  </si>
+  <si>
+    <t>The Parasol really stands out as a quirky character within the games world, and his rascal like attitude is sure to be memorable.</t>
+  </si>
+  <si>
+    <t>The Diviner and Setsuko have an interesting dynamic going in which both have their own goals, and it is clear that the Diviner has greater plans going forward.</t>
+  </si>
+  <si>
+    <t>The introduction to the story is purposfully slow paced and full of environmental clues as to the themes and greater narrative of the game. Durring this into, the player is free to explore the areas surrounding the path, and will be rewarded with environmental clues as to the story of the game as they progress.</t>
+  </si>
+  <si>
+    <t>The player's immediate goal is almost always the last thing stated within the most recent dialogue.</t>
+  </si>
+  <si>
+    <t>The world design leads the player to a conclusion, and provides clues as to where to go, and how to procceed. We also utilize the Parasol, once unlocked, to help the player know what their goals are.</t>
+  </si>
+  <si>
+    <t>Learning how to navigate and interact with the world is taught to the player as they progress through the dungeon and the lessons come to a culmination when the player reaches the boss.</t>
+  </si>
+  <si>
+    <t>The game is fairly linear, and the player's progression should be evident by the fact that they have continued along the primary starting path.</t>
+  </si>
+  <si>
+    <t>The initial path has a clear beginning and end. When the player wakes up at the beginning of the second path, they have a clear beginning, a brief narrative interlude, then a dungeon which has a natural progression to a boss to end the segment.</t>
+  </si>
+  <si>
+    <t>In the Dungeon the floor in the main room lights up to indicated completed puzzles. All of this is color coordinated.</t>
   </si>
 </sst>
 </file>
@@ -3448,6 +3543,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3455,6 +3551,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3462,6 +3559,7 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3469,12 +3567,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3482,6 +3582,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3505,6 +3606,7 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3512,6 +3614,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3519,6 +3622,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3526,6 +3630,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3534,6 +3639,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3542,6 +3648,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3550,12 +3657,14 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3563,6 +3672,7 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3570,12 +3680,14 @@
       <sz val="24"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3583,12 +3695,14 @@
       <sz val="13.5"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3596,18 +3710,21 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3615,6 +3732,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4556,6 +4674,87 @@
     <xf numFmtId="10" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="155" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4583,94 +4782,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="155" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4680,6 +4801,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4703,20 +4833,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4731,48 +4861,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4801,6 +4889,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15038,51 +15156,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="124"/>
+      <c r="A1" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="151"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="124"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="151"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="152" t="s">
         <v>888</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="125" t="s">
+      <c r="F2" s="152" t="s">
         <v>889</v>
       </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="127"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="154"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="130"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="130"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="157"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
@@ -15102,39 +15220,39 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="122" t="s">
+      <c r="F5" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="151"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="146" t="s">
         <v>890</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="134" t="s">
+      <c r="F6" s="146" t="s">
         <v>892</v>
       </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="148"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="131" t="s">
+      <c r="K6" s="143" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="35"/>
@@ -15145,50 +15263,50 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="134" t="s">
+      <c r="F7" s="146" t="s">
         <v>893</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="148"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="132"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="124"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="146" t="s">
         <v>894</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="136"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="148"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="132"/>
+      <c r="K8" s="144"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="146" t="s">
         <v>891</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="134" t="s">
+      <c r="F9" s="146" t="s">
         <v>895</v>
       </c>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="136"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="148"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="133"/>
+      <c r="K9" s="145"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15206,17 +15324,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="151"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="124"/>
+      <c r="G11" s="151"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -15255,7 +15373,7 @@
         <v>-0.08</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="131" t="s">
+      <c r="K12" s="143" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
@@ -15285,7 +15403,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="132"/>
+      <c r="K13" s="144"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15312,7 +15430,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="133"/>
+      <c r="K14" s="145"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15366,10 +15484,10 @@
       <c r="C17" s="45"/>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="122" t="s">
+      <c r="F17" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="124"/>
+      <c r="G17" s="151"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -15387,16 +15505,16 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="137" t="s">
+      <c r="G18" s="127" t="s">
         <v>903</v>
       </c>
-      <c r="H18" s="138"/>
+      <c r="H18" s="129"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>-0.1</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="131" t="s">
+      <c r="K18" s="143" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -15410,16 +15528,16 @@
       <c r="F19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="139" t="s">
+      <c r="G19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="140"/>
+      <c r="H19" s="135"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="133"/>
+      <c r="K19" s="145"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15447,7 +15565,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="155" t="s">
+      <c r="F21" s="140" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="55"/>
@@ -15463,17 +15581,17 @@
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="156"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="141">
+      <c r="I22" s="122">
         <f>I20+I15</f>
         <v>0.67</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="143" t="s">
+      <c r="K22" s="124" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="35"/>
@@ -15484,14 +15602,14 @@
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="156"/>
+      <c r="F23" s="141"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="142"/>
+      <c r="I23" s="123"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="144"/>
+      <c r="K23" s="125"/>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15500,7 +15618,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="157"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15528,12 +15646,12 @@
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
@@ -15544,12 +15662,12 @@
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="137" t="s">
+      <c r="F27" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="138"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
@@ -15560,10 +15678,10 @@
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="149"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="132"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
@@ -15574,10 +15692,10 @@
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="149"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
@@ -15588,28 +15706,28 @@
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="149"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="151" t="s">
+      <c r="A31" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="152"/>
-      <c r="C31" s="153" t="s">
+      <c r="B31" s="137"/>
+      <c r="C31" s="138" t="s">
         <v>902</v>
       </c>
-      <c r="D31" s="154"/>
+      <c r="D31" s="139"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="140"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="135"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
@@ -15630,13 +15748,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15652,12 +15769,13 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15722,65 +15840,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="185" t="s">
         <v>700</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="200" t="s">
         <v>683</v>
       </c>
-      <c r="D1" s="186"/>
-      <c r="E1" s="185" t="s">
+      <c r="D1" s="201"/>
+      <c r="E1" s="200" t="s">
         <v>684</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="185" t="s">
+      <c r="F1" s="201"/>
+      <c r="G1" s="200" t="s">
         <v>685</v>
       </c>
-      <c r="H1" s="186"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="196"/>
+      <c r="A2" s="186"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="202" t="s">
         <v>682</v>
       </c>
-      <c r="D2" s="188"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="203"/>
+      <c r="E2" s="202" t="s">
         <v>682</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="187" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="202" t="s">
         <v>682</v>
       </c>
-      <c r="H2" s="188"/>
-      <c r="J2" s="198" t="s">
+      <c r="H2" s="203"/>
+      <c r="J2" s="188" t="s">
         <v>701</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="200"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="190"/>
     </row>
     <row r="3" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="197"/>
+      <c r="A3" s="187"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="189">
+      <c r="C3" s="198">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),0.01))))</f>
-        <v>0.67</v>
-      </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="189">
+        <v>0.68</v>
+      </c>
+      <c r="D3" s="199"/>
+      <c r="E3" s="198">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),0.01))))</f>
-        <v>0.67</v>
-      </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="189">
+        <v>0.68</v>
+      </c>
+      <c r="F3" s="199"/>
+      <c r="G3" s="198">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),0.01))))</f>
-        <v>0.67</v>
-      </c>
-      <c r="H3" s="190"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="203"/>
+        <v>0.68</v>
+      </c>
+      <c r="H3" s="199"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="193"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -15800,18 +15918,18 @@
         <v>686</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="149" t="s">
         <v>687</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="122" t="s">
+      <c r="D5" s="151"/>
+      <c r="E5" s="149" t="s">
         <v>688</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="122" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="149" t="s">
         <v>689</v>
       </c>
-      <c r="H5" s="124"/>
+      <c r="H5" s="151"/>
       <c r="J5" s="77" t="s">
         <v>702</v>
       </c>
@@ -15826,46 +15944,46 @@
         <v>0.67</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="192">
+      <c r="C6" s="195">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="192">
+      <c r="D6" s="196"/>
+      <c r="E6" s="195">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="193"/>
-      <c r="G6" s="192">
+      <c r="F6" s="196"/>
+      <c r="G6" s="195">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="193"/>
+      <c r="H6" s="196"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>5.1249999999999865E-2</v>
+        <v>4.3749999999999914E-2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
         <f>IF(J6 &gt; 0.05, 0, IF( J6 &gt; 0.02, 0.01, (IF(J6 &gt; 0.01, 0.02, 0.03))))</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="197" t="s">
         <v>690</v>
       </c>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194" t="s">
+      <c r="D7" s="197"/>
+      <c r="E7" s="197" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194" t="s">
+      <c r="F7" s="197"/>
+      <c r="G7" s="197" t="s">
         <v>692</v>
       </c>
-      <c r="H7" s="194"/>
+      <c r="H7" s="197"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
@@ -16039,7 +16157,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="131" t="s">
+      <c r="J12" s="143" t="s">
         <v>715</v>
       </c>
       <c r="K12" s="31"/>
@@ -16077,7 +16195,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="132"/>
+      <c r="J13" s="144"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>708</v>
@@ -16113,7 +16231,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="132"/>
+      <c r="J14" s="144"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>709</v>
@@ -16143,7 +16261,7 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="132"/>
+      <c r="J15" s="144"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>710</v>
@@ -16152,19 +16270,19 @@
     <row r="16" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="191" t="s">
+      <c r="C16" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D16" s="191"/>
-      <c r="E16" s="191" t="s">
+      <c r="D16" s="194"/>
+      <c r="E16" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F16" s="191"/>
-      <c r="G16" s="191" t="s">
+      <c r="F16" s="194"/>
+      <c r="G16" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H16" s="191"/>
-      <c r="J16" s="132"/>
+      <c r="H16" s="194"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>711</v>
@@ -16195,7 +16313,7 @@
       <c r="H17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="132"/>
+      <c r="J17" s="144"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>712</v>
@@ -16231,7 +16349,7 @@
         <f>B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="132"/>
+      <c r="J18" s="144"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>713</v>
@@ -16267,7 +16385,7 @@
         <f t="shared" ref="H19:H23" si="5">B19*G19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="133"/>
+      <c r="J19" s="145"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>714</v>
@@ -16425,18 +16543,18 @@
     <row r="25" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="191" t="s">
+      <c r="C25" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191" t="s">
+      <c r="D25" s="194"/>
+      <c r="E25" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="191"/>
-      <c r="G25" s="191" t="s">
+      <c r="F25" s="194"/>
+      <c r="G25" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H25" s="191"/>
+      <c r="H25" s="194"/>
     </row>
     <row r="26" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -16678,18 +16796,18 @@
     <row r="34" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="191" t="s">
+      <c r="C34" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191" t="s">
+      <c r="D34" s="194"/>
+      <c r="E34" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191" t="s">
+      <c r="F34" s="194"/>
+      <c r="G34" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H34" s="191"/>
+      <c r="H34" s="194"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -16931,18 +17049,18 @@
     <row r="43" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="191" t="s">
+      <c r="C43" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191" t="s">
+      <c r="D43" s="194"/>
+      <c r="E43" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191" t="s">
+      <c r="F43" s="194"/>
+      <c r="G43" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H43" s="191"/>
+      <c r="H43" s="194"/>
     </row>
     <row r="44" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -17184,18 +17302,18 @@
     <row r="52" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="191" t="s">
+      <c r="C52" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D52" s="191"/>
-      <c r="E52" s="191" t="s">
+      <c r="D52" s="194"/>
+      <c r="E52" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F52" s="191"/>
-      <c r="G52" s="191" t="s">
+      <c r="F52" s="194"/>
+      <c r="G52" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H52" s="191"/>
+      <c r="H52" s="194"/>
     </row>
     <row r="53" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -17436,6 +17554,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -17452,27 +17591,6 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17504,54 +17622,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="164"/>
     </row>
     <row r="2" spans="1:6" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="160"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="167"/>
     </row>
     <row r="3" spans="1:6" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="170"/>
     </row>
     <row r="4" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="165" t="s">
         <v>719</v>
       </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="160"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="167"/>
     </row>
     <row r="5" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="169"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="173"/>
     </row>
     <row r="6" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
@@ -17580,10 +17698,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="165"/>
+      <c r="B8" s="169"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17599,10 +17717,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="171" t="s">
+      <c r="A9" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="172"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17618,10 +17736,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17637,10 +17755,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="173"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17656,10 +17774,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="173"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17675,10 +17793,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="172"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17694,10 +17812,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="172"/>
+      <c r="B14" s="159"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17713,10 +17831,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="175"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17733,11 +17851,11 @@
     </row>
     <row r="16" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -17756,93 +17874,88 @@
       <c r="A18" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="164"/>
     </row>
     <row r="19" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="160"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="167"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="160"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="167"/>
     </row>
     <row r="21" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="160"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="167"/>
     </row>
     <row r="22" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="167"/>
     </row>
     <row r="23" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="160"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="167"/>
     </row>
     <row r="24" spans="1:6" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="158" t="s">
+      <c r="B24" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="160"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -17859,6 +17972,11 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17917,7 +18035,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="180" t="s">
         <v>878</v>
       </c>
       <c r="D2" s="66">
@@ -17940,7 +18058,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
         <v>11.5</v>
@@ -17961,7 +18079,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>7</v>
@@ -17982,7 +18100,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>10</v>
@@ -18003,7 +18121,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>6.5</v>
@@ -18024,7 +18142,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>6.5</v>
@@ -18045,7 +18163,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>1</v>
@@ -18060,11 +18178,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -18079,10 +18197,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="176" t="s">
         <v>718</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="8" t="s">
         <v>860</v>
       </c>
@@ -18205,10 +18323,10 @@
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="181" t="s">
+      <c r="A17" s="176" t="s">
         <v>732</v>
       </c>
-      <c r="B17" s="182"/>
+      <c r="B17" s="177"/>
       <c r="C17" s="8" t="s">
         <v>862</v>
       </c>
@@ -18427,10 +18545,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="183" t="s">
+      <c r="A29" s="178" t="s">
         <v>733</v>
       </c>
-      <c r="B29" s="184"/>
+      <c r="B29" s="179"/>
       <c r="C29" s="8" t="s">
         <v>886</v>
       </c>
@@ -18913,10 +19031,10 @@
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="181" t="s">
+      <c r="A56" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="182"/>
+      <c r="B56" s="177"/>
       <c r="C56" s="8" t="s">
         <v>88</v>
       </c>
@@ -19153,10 +19271,10 @@
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="181" t="s">
+      <c r="A69" s="176" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="182"/>
+      <c r="B69" s="177"/>
       <c r="C69" s="8" t="s">
         <v>88</v>
       </c>
@@ -19315,10 +19433,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="181" t="s">
+      <c r="A78" s="176" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="182"/>
+      <c r="B78" s="177"/>
       <c r="C78" s="8" t="s">
         <v>88</v>
       </c>
@@ -19429,10 +19547,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="176" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="182"/>
+      <c r="B84" s="177"/>
       <c r="C84" s="8" t="s">
         <v>88</v>
       </c>
@@ -19679,10 +19797,10 @@
       <c r="F96" s="60"/>
     </row>
     <row r="97" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="181" t="s">
+      <c r="A97" s="176" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="182"/>
+      <c r="B97" s="177"/>
       <c r="C97" s="8" t="s">
         <v>88</v>
       </c>
@@ -19773,10 +19891,10 @@
       <c r="F101" s="60"/>
     </row>
     <row r="102" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="181" t="s">
+      <c r="A102" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="182"/>
+      <c r="B102" s="177"/>
       <c r="C102" s="8" t="s">
         <v>88</v>
       </c>
@@ -19921,10 +20039,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="181" t="s">
+      <c r="A110" s="176" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="182"/>
+      <c r="B110" s="177"/>
       <c r="C110" s="8" t="s">
         <v>88</v>
       </c>
@@ -19993,10 +20111,10 @@
       <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="181" t="s">
+      <c r="A114" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="182"/>
+      <c r="B114" s="177"/>
       <c r="C114" s="8" t="s">
         <v>88</v>
       </c>
@@ -20065,10 +20183,10 @@
       <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="181" t="s">
+      <c r="A118" s="176" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="182"/>
+      <c r="B118" s="177"/>
       <c r="C118" s="8" t="s">
         <v>816</v>
       </c>
@@ -20228,6 +20346,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -20237,11 +20360,6 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A14:A31 A95:A107 A56:A80 A82:A87">
     <cfRule type="beginsWith" dxfId="746" priority="306" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -21233,8 +21351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21276,7 +21394,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="180" t="s">
         <v>854</v>
       </c>
       <c r="D2" s="66">
@@ -21299,7 +21417,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -21320,7 +21438,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -21341,7 +21459,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>6</v>
@@ -21362,7 +21480,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -21383,7 +21501,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>13</v>
@@ -21404,10 +21522,10 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(E$10:E$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(E$10:E$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(E$10:E$241="Partial"))</f>
@@ -21419,11 +21537,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -21438,10 +21556,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="176" t="s">
         <v>803</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="8" t="s">
         <v>855</v>
       </c>
@@ -21528,10 +21646,10 @@
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="176" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="182"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="8" t="s">
         <v>88</v>
       </c>
@@ -21563,7 +21681,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="116" t="s">
         <v>95</v>
       </c>
@@ -21580,10 +21698,10 @@
         <v>73</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="117" t="s">
         <v>109</v>
       </c>
@@ -21600,10 +21718,10 @@
         <v>73</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="118" t="s">
         <v>97</v>
       </c>
@@ -21619,7 +21737,9 @@
       <c r="E19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="60" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="119" t="s">
@@ -21632,7 +21752,7 @@
         <v>330</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>73</v>
@@ -21680,10 +21800,10 @@
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="176" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="182"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="8" t="s">
         <v>88</v>
       </c>
@@ -21697,7 +21817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="115" t="s">
         <v>92</v>
       </c>
@@ -21713,7 +21833,9 @@
       <c r="E24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="60"/>
+      <c r="F24" s="60" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="116" t="s">
@@ -21733,7 +21855,7 @@
       </c>
       <c r="F25" s="60"/>
     </row>
-    <row r="26" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="117" t="s">
         <v>109</v>
       </c>
@@ -21749,7 +21871,9 @@
       <c r="E26" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="60"/>
+      <c r="F26" s="60" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="118" t="s">
@@ -21789,7 +21913,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="120" t="s">
         <v>218</v>
       </c>
@@ -21806,7 +21930,7 @@
         <v>73</v>
       </c>
       <c r="F29" s="60" t="s">
-        <v>904</v>
+        <v>926</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21828,10 +21952,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="181" t="s">
+      <c r="A31" s="176" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="182"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="8" t="s">
         <v>88</v>
       </c>
@@ -22010,7 +22134,7 @@
         <v>73</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -22314,10 +22438,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="181" t="s">
+      <c r="A57" s="176" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="182"/>
+      <c r="B57" s="177"/>
       <c r="C57" s="73" t="s">
         <v>825</v>
       </c>
@@ -22592,7 +22716,7 @@
         <v>73</v>
       </c>
       <c r="F71" s="60" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -22714,10 +22838,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="181" t="s">
+      <c r="A78" s="176" t="s">
         <v>299</v>
       </c>
-      <c r="B78" s="182"/>
+      <c r="B78" s="177"/>
       <c r="C78" s="8" t="s">
         <v>88</v>
       </c>
@@ -22974,7 +23098,7 @@
         <v>73</v>
       </c>
       <c r="F91" s="60" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23651,7 +23775,7 @@
       <formula>LEN(TRIM(D14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D101:E103 D110:E117 D105:E108 D79:E99 D24:E30 D16:E22 D11:E14 D58:E77 D32:E56">
       <formula1>"Untested, Missing, Partial, Completed, Pre-Passed, Waived, Not Applicable"</formula1>
     </dataValidation>
@@ -23713,7 +23837,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="180" t="s">
         <v>823</v>
       </c>
       <c r="D2" s="66">
@@ -23736,7 +23860,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23757,7 +23881,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23778,7 +23902,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>5</v>
@@ -23799,7 +23923,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23820,7 +23944,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>6</v>
@@ -23841,7 +23965,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>9</v>
@@ -23856,11 +23980,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -23875,10 +23999,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="8" t="s">
         <v>88</v>
       </c>
@@ -24079,7 +24203,7 @@
         <v>73</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24101,10 +24225,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="176" t="s">
         <v>528</v>
       </c>
-      <c r="B22" s="182"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="8" t="s">
         <v>88</v>
       </c>
@@ -24263,10 +24387,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="181" t="s">
+      <c r="A31" s="176" t="s">
         <v>544</v>
       </c>
-      <c r="B31" s="182"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="8" t="s">
         <v>88</v>
       </c>
@@ -24449,7 +24573,7 @@
         <v>73</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24491,10 +24615,10 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="181" t="s">
+      <c r="A43" s="176" t="s">
         <v>655</v>
       </c>
-      <c r="B43" s="182"/>
+      <c r="B43" s="177"/>
       <c r="C43" s="8" t="s">
         <v>88</v>
       </c>
@@ -24645,7 +24769,7 @@
         <v>73</v>
       </c>
       <c r="F50" s="60" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -24665,7 +24789,7 @@
         <v>73</v>
       </c>
       <c r="F51" s="60" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -24761,8 +24885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="B43" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24804,7 +24928,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="180" t="s">
         <v>379</v>
       </c>
       <c r="D2" s="66">
@@ -24827,7 +24951,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24848,7 +24972,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -24869,7 +24993,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -24890,7 +25014,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -24911,7 +25035,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>7</v>
@@ -24932,7 +25056,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>5</v>
@@ -24947,11 +25071,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>3</v>
@@ -24966,10 +25090,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="176" t="s">
         <v>380</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="8" t="s">
         <v>88</v>
       </c>
@@ -24999,9 +25123,7 @@
       <c r="E11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="60" t="s">
-        <v>872</v>
-      </c>
+      <c r="F11" s="60"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="117" t="s">
@@ -25019,9 +25141,7 @@
       <c r="E12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="60" t="s">
-        <v>873</v>
-      </c>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="118" t="s">
@@ -25057,7 +25177,9 @@
       <c r="E14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="60" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="120" t="s">
@@ -25078,10 +25200,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="181" t="s">
+      <c r="A16" s="176" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="182"/>
+      <c r="B16" s="177"/>
       <c r="C16" s="8" t="s">
         <v>88</v>
       </c>
@@ -25131,7 +25253,7 @@
       </c>
       <c r="F18" s="60"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="118" t="s">
         <v>97</v>
       </c>
@@ -25147,7 +25269,9 @@
       <c r="E19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="60" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="119" t="s">
@@ -25186,10 +25310,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="176" t="s">
         <v>402</v>
       </c>
-      <c r="B22" s="182"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="8" t="s">
         <v>819</v>
       </c>
@@ -25275,7 +25399,7 @@
       </c>
       <c r="F26" s="60"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="120" t="s">
         <v>218</v>
       </c>
@@ -25291,7 +25415,9 @@
       <c r="E27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="60"/>
+      <c r="F27" s="60" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="120" t="s">
@@ -25312,10 +25438,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="181" t="s">
+      <c r="A29" s="176" t="s">
         <v>415</v>
       </c>
-      <c r="B29" s="182"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="8" t="s">
         <v>817</v>
       </c>
@@ -25383,7 +25509,7 @@
       </c>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="119" t="s">
         <v>134</v>
       </c>
@@ -25399,9 +25525,11 @@
       <c r="E33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="60"/>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="60" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="120" t="s">
         <v>218</v>
       </c>
@@ -25417,7 +25545,9 @@
       <c r="E34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="60"/>
+      <c r="F34" s="60" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="120" t="s">
@@ -25456,10 +25586,10 @@
       <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="176" t="s">
         <v>430</v>
       </c>
-      <c r="B37" s="182"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="8" t="s">
         <v>818</v>
       </c>
@@ -25582,10 +25712,10 @@
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="181" t="s">
+      <c r="A44" s="176" t="s">
         <v>443</v>
       </c>
-      <c r="B44" s="182"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="8" t="s">
         <v>88</v>
       </c>
@@ -25653,7 +25783,7 @@
       </c>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="118" t="s">
         <v>97</v>
       </c>
@@ -25669,7 +25799,9 @@
       <c r="E48" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="60"/>
+      <c r="F48" s="60" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="118" t="s">
@@ -26274,7 +26406,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="180" t="s">
         <v>468</v>
       </c>
       <c r="D2" s="66">
@@ -26297,7 +26429,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -26318,7 +26450,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -26339,7 +26471,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>7</v>
@@ -26360,7 +26492,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>1</v>
@@ -26381,7 +26513,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>13</v>
@@ -26402,7 +26534,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>5</v>
@@ -26417,11 +26549,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>2</v>
@@ -26436,10 +26568,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="176" t="s">
         <v>469</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="8" t="s">
         <v>88</v>
       </c>
@@ -26720,7 +26852,7 @@
         <v>73</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26800,10 +26932,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="181" t="s">
+      <c r="A29" s="176" t="s">
         <v>505</v>
       </c>
-      <c r="B29" s="182"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="8" t="s">
         <v>814</v>
       </c>
@@ -27020,10 +27152,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="181" t="s">
+      <c r="A41" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="182"/>
+      <c r="B41" s="177"/>
       <c r="C41" s="8" t="s">
         <v>88</v>
       </c>
@@ -27184,10 +27316,10 @@
       <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="181" t="s">
+      <c r="A50" s="176" t="s">
         <v>583</v>
       </c>
-      <c r="B50" s="182"/>
+      <c r="B50" s="177"/>
       <c r="C50" s="73" t="s">
         <v>815</v>
       </c>
@@ -27364,7 +27496,7 @@
         <v>73</v>
       </c>
       <c r="F59" s="60" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
@@ -27765,7 +27897,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="180" t="s">
         <v>604</v>
       </c>
       <c r="D2" s="66">
@@ -27788,7 +27920,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27809,7 +27941,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27830,7 +27962,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -27851,7 +27983,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27872,7 +28004,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>8</v>
@@ -27893,7 +28025,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>3.5</v>
@@ -27908,11 +28040,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -27927,10 +28059,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="176" t="s">
         <v>605</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="73" t="s">
         <v>808</v>
       </c>
@@ -28075,7 +28207,7 @@
         <v>73</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -28151,10 +28283,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="B22" s="182"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="8" t="s">
         <v>88</v>
       </c>
@@ -28331,7 +28463,7 @@
         <v>73</v>
       </c>
       <c r="F31" s="60" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -28371,10 +28503,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="176" t="s">
         <v>804</v>
       </c>
-      <c r="B34" s="182"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="8" t="s">
         <v>809</v>
       </c>
@@ -28499,10 +28631,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="181" t="s">
+      <c r="A41" s="176" t="s">
         <v>674</v>
       </c>
-      <c r="B41" s="182"/>
+      <c r="B41" s="177"/>
       <c r="C41" s="8" t="s">
         <v>88</v>
       </c>
@@ -28935,65 +29067,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="185" t="s">
         <v>699</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="200" t="s">
         <v>683</v>
       </c>
-      <c r="D1" s="186"/>
-      <c r="E1" s="185" t="s">
+      <c r="D1" s="201"/>
+      <c r="E1" s="200" t="s">
         <v>684</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="185" t="s">
+      <c r="F1" s="201"/>
+      <c r="G1" s="200" t="s">
         <v>685</v>
       </c>
-      <c r="H1" s="186"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="196"/>
+      <c r="A2" s="186"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="202" t="s">
         <v>682</v>
       </c>
-      <c r="D2" s="188"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="203"/>
+      <c r="E2" s="202" t="s">
         <v>682</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="187" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="202" t="s">
         <v>682</v>
       </c>
-      <c r="H2" s="188"/>
-      <c r="J2" s="198" t="s">
+      <c r="H2" s="203"/>
+      <c r="J2" s="188" t="s">
         <v>701</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="200"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="190"/>
     </row>
     <row r="3" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="197"/>
+      <c r="A3" s="187"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="189">
+      <c r="C3" s="198">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),0.01))))</f>
-        <v>0.17</v>
-      </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="189">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="199"/>
+      <c r="E3" s="198">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),0.01))))</f>
-        <v>0.72</v>
-      </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="189">
+        <v>0.71</v>
+      </c>
+      <c r="F3" s="199"/>
+      <c r="G3" s="198">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),0.01))))</f>
         <v>0.96</v>
       </c>
-      <c r="H3" s="190"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="203"/>
+      <c r="H3" s="199"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="193"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -29010,19 +29142,19 @@
         <v>686</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="149" t="s">
         <v>687</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="122" t="s">
+      <c r="D5" s="151"/>
+      <c r="E5" s="149" t="s">
         <v>688</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="122" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="149" t="s">
         <v>689</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="J5" s="131" t="s">
+      <c r="H5" s="151"/>
+      <c r="J5" s="143" t="s">
         <v>715</v>
       </c>
       <c r="K5" s="31"/>
@@ -29036,22 +29168,22 @@
         <v>0.67</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="192">
+      <c r="C6" s="195">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>-0.49874999999999992</v>
-      </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="192">
+        <v>-0.50624999999999987</v>
+      </c>
+      <c r="D6" s="196"/>
+      <c r="E6" s="195">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>5.1249999999999865E-2</v>
-      </c>
-      <c r="F6" s="193"/>
-      <c r="G6" s="192">
+        <v>4.3749999999999914E-2</v>
+      </c>
+      <c r="F6" s="196"/>
+      <c r="G6" s="195">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>0.36625000000000008</v>
-      </c>
-      <c r="H6" s="193"/>
-      <c r="J6" s="132"/>
+        <v>0.35875000000000001</v>
+      </c>
+      <c r="H6" s="196"/>
+      <c r="J6" s="144"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>708</v>
@@ -29060,19 +29192,19 @@
     <row r="7" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="197" t="s">
         <v>690</v>
       </c>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194" t="s">
+      <c r="D7" s="197"/>
+      <c r="E7" s="197" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194" t="s">
+      <c r="F7" s="197"/>
+      <c r="G7" s="197" t="s">
         <v>692</v>
       </c>
-      <c r="H7" s="194"/>
-      <c r="J7" s="132"/>
+      <c r="H7" s="197"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>709</v>
@@ -29103,7 +29235,7 @@
       <c r="H8" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="132"/>
+      <c r="J8" s="144"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>710</v>
@@ -29139,7 +29271,7 @@
         <f>B9*G9</f>
         <v>-0.16</v>
       </c>
-      <c r="J9" s="132"/>
+      <c r="J9" s="144"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>711</v>
@@ -29175,7 +29307,7 @@
         <f t="shared" ref="H10:H14" si="2">B10*G10</f>
         <v>-5.7500000000000002E-2</v>
       </c>
-      <c r="J10" s="132"/>
+      <c r="J10" s="144"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>712</v>
@@ -29211,7 +29343,7 @@
         <f t="shared" si="2"/>
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="J11" s="132"/>
+      <c r="J11" s="144"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>713</v>
@@ -29247,7 +29379,7 @@
         <f t="shared" si="2"/>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J12" s="133"/>
+      <c r="J12" s="145"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>714</v>
@@ -29343,18 +29475,18 @@
     <row r="16" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="191" t="s">
+      <c r="C16" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D16" s="191"/>
-      <c r="E16" s="191" t="s">
+      <c r="D16" s="194"/>
+      <c r="E16" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F16" s="191"/>
-      <c r="G16" s="191" t="s">
+      <c r="F16" s="194"/>
+      <c r="G16" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H16" s="191"/>
+      <c r="H16" s="194"/>
     </row>
     <row r="17" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -29513,28 +29645,28 @@
       </c>
       <c r="B22" s="11">
         <f>DCRs!$D$8</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="121">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D22" s="97">
         <f t="shared" si="3"/>
-        <v>6.7500000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E22" s="121">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F22" s="97">
         <f t="shared" si="4"/>
-        <v>6.7500000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="G22" s="121">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H22" s="97">
         <f t="shared" si="5"/>
-        <v>6.7500000000000004E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29576,38 +29708,38 @@
       </c>
       <c r="D24" s="99">
         <f>SUM(D18:D23)</f>
-        <v>0.1525</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E24" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="99">
         <f>SUM(F18:F23)</f>
-        <v>0.1525</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="G24" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="99">
         <f>SUM(H18:H23)</f>
-        <v>0.1525</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="191" t="s">
+      <c r="C25" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191" t="s">
+      <c r="D25" s="194"/>
+      <c r="E25" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="191"/>
-      <c r="G25" s="191" t="s">
+      <c r="F25" s="194"/>
+      <c r="G25" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H25" s="191"/>
+      <c r="H25" s="194"/>
     </row>
     <row r="26" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -29849,18 +29981,18 @@
     <row r="34" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="191" t="s">
+      <c r="C34" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191" t="s">
+      <c r="D34" s="194"/>
+      <c r="E34" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191" t="s">
+      <c r="F34" s="194"/>
+      <c r="G34" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H34" s="191"/>
+      <c r="H34" s="194"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -30102,18 +30234,18 @@
     <row r="43" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="191" t="s">
+      <c r="C43" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191" t="s">
+      <c r="D43" s="194"/>
+      <c r="E43" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191" t="s">
+      <c r="F43" s="194"/>
+      <c r="G43" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H43" s="191"/>
+      <c r="H43" s="194"/>
     </row>
     <row r="44" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -30355,18 +30487,18 @@
     <row r="52" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="191" t="s">
+      <c r="C52" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D52" s="191"/>
-      <c r="E52" s="191" t="s">
+      <c r="D52" s="194"/>
+      <c r="E52" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F52" s="191"/>
-      <c r="G52" s="191" t="s">
+      <c r="F52" s="194"/>
+      <c r="G52" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H52" s="191"/>
+      <c r="H52" s="194"/>
     </row>
     <row r="53" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -30607,6 +30739,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -30623,26 +30775,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/documents/setsuko_rubric.xlsx
+++ b/documents/setsuko_rubric.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="940">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3453,9 +3453,6 @@
     <t>Zero Engine</t>
   </si>
   <si>
-    <t xml:space="preserve">Different Phases of the Dungeon Boss (Intro/Music Change), Warings to the Player when off the path, </t>
-  </si>
-  <si>
     <t>Used to be advanced. The Final Boos Battle</t>
   </si>
   <si>
@@ -3520,6 +3517,54 @@
   </si>
   <si>
     <t>In the Dungeon the floor in the main room lights up to indicated completed puzzles. All of this is color coordinated.</t>
+  </si>
+  <si>
+    <t>Primary gameplay is inspired by the Legend of Zelda series, and The Path but differs greatly from both</t>
+  </si>
+  <si>
+    <t>There is full gameplay, though the segments presented here are more akin to a game demo for our project next semester</t>
+  </si>
+  <si>
+    <t>The game should be completable by most players, though the boss specifically may present issues to weaker players.</t>
+  </si>
+  <si>
+    <t>Our game is combat focused without having direct combat. This means that the player needs to utilize their environment to defeat their enemies instead of relying on brute strength</t>
+  </si>
+  <si>
+    <t>The introductory path is purposefully slow, this is to encourage the player to leave the path, and discover the narrative hints throughout the environment. The game picks up after meeting the diviner, becoming a more traditional game with greater variations of intensity.</t>
+  </si>
+  <si>
+    <t>Everything in our game has been planned to be coherent with one another and not cause dissonance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different Phases of the Dungeon Boss (Intro/Music Change), Warnings to the Player when off the path, </t>
+  </si>
+  <si>
+    <t>We are attempting to create a poetic narrative within the structure of an Action-Adventure game. We have dotted the entirety of the game with hints to a greater narrative that is steeped in tragedy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segment Breakdown:
+1) Intro path which starts at home and provides beginning of narrative
+2) Path to the Monk's house with various environmental narrative hints
+3) Monk finale if the player has stayed on the path
+</t>
+  </si>
+  <si>
+    <t>Segment Breakdown Continued:
+4) Diviner path with new assets and aesthetic design
+5) Dungeon with two side rooms and a boss fight</t>
+  </si>
+  <si>
+    <t>Note: due to the current structue of the geometry painter tool in Zero, there can be issues with catching on the seems between the path and the grass</t>
+  </si>
+  <si>
+    <t>Fades between segments/episodes with dialogue often bookending each section</t>
+  </si>
+  <si>
+    <t>The beginning is strong with dialogue telling the player their goal and providing them with a reason to progress</t>
+  </si>
+  <si>
+    <t>Testers have shown varying states of engagement throughout the game, but none have reported losing all interest in the game.</t>
   </si>
 </sst>
 </file>
@@ -21351,8 +21396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="B76" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21698,7 +21743,7 @@
         <v>73</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21718,7 +21763,7 @@
         <v>73</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21738,7 +21783,7 @@
         <v>73</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -21834,7 +21879,7 @@
         <v>73</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21872,7 +21917,7 @@
         <v>73</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
@@ -21930,7 +21975,7 @@
         <v>73</v>
       </c>
       <c r="F29" s="60" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21969,7 +22014,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="115" t="s">
         <v>92</v>
       </c>
@@ -21985,9 +22030,11 @@
       <c r="E32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="60"/>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="60" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="115" t="s">
         <v>92</v>
       </c>
@@ -22003,9 +22050,11 @@
       <c r="E33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="60"/>
-    </row>
-    <row r="34" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="60" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="115" t="s">
         <v>92</v>
       </c>
@@ -22021,9 +22070,11 @@
       <c r="E34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="60"/>
-    </row>
-    <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="60" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="116" t="s">
         <v>95</v>
       </c>
@@ -22039,9 +22090,11 @@
       <c r="E35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="60"/>
-    </row>
-    <row r="36" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="60" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="116" t="s">
         <v>95</v>
       </c>
@@ -22057,7 +22110,9 @@
       <c r="E36" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="60"/>
+      <c r="F36" s="60" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="117" t="s">
@@ -22099,7 +22154,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="118" t="s">
         <v>97</v>
       </c>
@@ -22115,7 +22170,9 @@
       <c r="E39" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="60"/>
+      <c r="F39" s="60" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="118" t="s">
@@ -22134,7 +22191,7 @@
         <v>73</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>904</v>
+        <v>932</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -22251,7 +22308,7 @@
       </c>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="119" t="s">
         <v>134</v>
       </c>
@@ -22267,7 +22324,9 @@
       <c r="E47" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="60"/>
+      <c r="F47" s="60" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="120" t="s">
@@ -22473,7 +22532,7 @@
       </c>
       <c r="F58" s="60"/>
     </row>
-    <row r="59" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="115" t="s">
         <v>92</v>
       </c>
@@ -22489,9 +22548,11 @@
       <c r="E59" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="60"/>
-    </row>
-    <row r="60" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="60" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="116" t="s">
         <v>95</v>
       </c>
@@ -22507,9 +22568,11 @@
       <c r="E60" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="60"/>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="60" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="117" t="s">
         <v>109</v>
       </c>
@@ -22526,7 +22589,7 @@
         <v>73</v>
       </c>
       <c r="F61" s="60" t="s">
-        <v>873</v>
+        <v>935</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -22545,9 +22608,11 @@
       <c r="E62" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F62" s="60"/>
-    </row>
-    <row r="63" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="60" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="118" t="s">
         <v>97</v>
       </c>
@@ -22563,7 +22628,9 @@
       <c r="E63" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F63" s="60"/>
+      <c r="F63" s="60" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="118" t="s">
@@ -22716,7 +22783,7 @@
         <v>73</v>
       </c>
       <c r="F71" s="60" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -22963,7 +23030,7 @@
       </c>
       <c r="F84" s="60"/>
     </row>
-    <row r="85" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="119" t="s">
         <v>134</v>
       </c>
@@ -22980,7 +23047,7 @@
         <v>73</v>
       </c>
       <c r="F85" s="60" t="s">
-        <v>875</v>
+        <v>939</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23098,7 +23165,7 @@
         <v>73</v>
       </c>
       <c r="F91" s="60" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -24203,7 +24270,7 @@
         <v>73</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24573,7 +24640,7 @@
         <v>73</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24769,7 +24836,7 @@
         <v>73</v>
       </c>
       <c r="F50" s="60" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -24789,7 +24856,7 @@
         <v>73</v>
       </c>
       <c r="F51" s="60" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -25178,7 +25245,7 @@
         <v>73</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25270,7 +25337,7 @@
         <v>73</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25416,7 +25483,7 @@
         <v>73</v>
       </c>
       <c r="F27" s="60" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25526,7 +25593,7 @@
         <v>73</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25546,7 +25613,7 @@
         <v>73</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25800,7 +25867,7 @@
         <v>73</v>
       </c>
       <c r="F48" s="60" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26852,7 +26919,7 @@
         <v>73</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27496,7 +27563,7 @@
         <v>73</v>
       </c>
       <c r="F59" s="60" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
@@ -28207,7 +28274,7 @@
         <v>73</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -28463,7 +28530,7 @@
         <v>73</v>
       </c>
       <c r="F31" s="60" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">

--- a/documents/setsuko_rubric.xlsx
+++ b/documents/setsuko_rubric.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garrett\Documents\GitHub\DemonParasol\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\e.gleiser\documents\github\demonparasol\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="965">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3565,6 +3565,81 @@
   </si>
   <si>
     <t>Testers have shown varying states of engagement throughout the game, but none have reported losing all interest in the game.</t>
+  </si>
+  <si>
+    <t>Used to be advanced. Strong intro narative.</t>
+  </si>
+  <si>
+    <t>Waved by Chris Peters</t>
+  </si>
+  <si>
+    <t>Automatically works when gampad plugged and unplugged</t>
+  </si>
+  <si>
+    <t>Music Mage with Logic Pro and EastWest PLAY</t>
+  </si>
+  <si>
+    <t>Music has Japanese instruments</t>
+  </si>
+  <si>
+    <t>Music by Eric Gleiser</t>
+  </si>
+  <si>
+    <t>Made with expensive professional tools.</t>
+  </si>
+  <si>
+    <t>High Quality</t>
+  </si>
+  <si>
+    <t>Menu sounds</t>
+  </si>
+  <si>
+    <t>Pause menu sounds</t>
+  </si>
+  <si>
+    <t>Sound effects carefully matched to player actions</t>
+  </si>
+  <si>
+    <t>Many high quality sounds are used with muliple variations in the same SoundCue</t>
+  </si>
+  <si>
+    <t>Sound effects are consistent and match their actions</t>
+  </si>
+  <si>
+    <t>Music softer than sound effects. No speaker clipping</t>
+  </si>
+  <si>
+    <t>Used to be basic. Some fonts are thin but this is part of the style</t>
+  </si>
+  <si>
+    <t>Flower is the same flower used in Japanese Mother's Day</t>
+  </si>
+  <si>
+    <t>Red and White colors = Japan</t>
+  </si>
+  <si>
+    <t>Hud animated with sprites and actions</t>
+  </si>
+  <si>
+    <t>Art themed in Oragami-like Paper polygon style</t>
+  </si>
+  <si>
+    <t>All assets 3d models in polygonal style</t>
+  </si>
+  <si>
+    <t>Used to be advanced. Are custom modeled and high quality</t>
+  </si>
+  <si>
+    <t>No top down othrographic games use this style</t>
+  </si>
+  <si>
+    <t>Many awesome particles</t>
+  </si>
+  <si>
+    <t>Camera can have transitions</t>
+  </si>
+  <si>
+    <t>Umbrella open and close animation was tough to get right</t>
   </si>
 </sst>
 </file>
@@ -4719,87 +4794,6 @@
     <xf numFmtId="10" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="155" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4827,16 +4821,94 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="155" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4846,15 +4918,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4878,20 +4941,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4906,6 +4969,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4934,36 +5039,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15201,51 +15276,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="151"/>
+      <c r="A1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="149" t="s">
+      <c r="F1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="151"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="124"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="125" t="s">
         <v>888</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="152" t="s">
+      <c r="F2" s="125" t="s">
         <v>889</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="154"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="127"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="130"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
@@ -15265,39 +15340,39 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="149" t="s">
+      <c r="F5" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="151"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="134" t="s">
         <v>890</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="146" t="s">
+      <c r="F6" s="134" t="s">
         <v>892</v>
       </c>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="148"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="136"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="143" t="s">
+      <c r="K6" s="131" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="35"/>
@@ -15308,50 +15383,50 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="146" t="s">
+      <c r="F7" s="134" t="s">
         <v>893</v>
       </c>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="148"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="144"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="146" t="s">
+      <c r="F8" s="134" t="s">
         <v>894</v>
       </c>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="148"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="136"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="144"/>
+      <c r="K8" s="132"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="134" t="s">
         <v>891</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="136"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="146" t="s">
+      <c r="F9" s="134" t="s">
         <v>895</v>
       </c>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="148"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="136"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="145"/>
+      <c r="K9" s="133"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15369,17 +15444,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="151"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="149" t="s">
+      <c r="F11" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="151"/>
+      <c r="G11" s="124"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -15418,7 +15493,7 @@
         <v>-0.08</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="143" t="s">
+      <c r="K12" s="131" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
@@ -15448,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="144"/>
+      <c r="K13" s="132"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15475,7 +15550,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="145"/>
+      <c r="K14" s="133"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15529,10 +15604,10 @@
       <c r="C17" s="45"/>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="149" t="s">
+      <c r="F17" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="151"/>
+      <c r="G17" s="124"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -15550,16 +15625,16 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="137" t="s">
         <v>903</v>
       </c>
-      <c r="H18" s="129"/>
+      <c r="H18" s="138"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>-0.1</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="143" t="s">
+      <c r="K18" s="131" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -15573,16 +15648,16 @@
       <c r="F19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="135"/>
+      <c r="H19" s="140"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="145"/>
+      <c r="K19" s="133"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15610,7 +15685,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="140" t="s">
+      <c r="F21" s="155" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="55"/>
@@ -15626,17 +15701,17 @@
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="141"/>
+      <c r="F22" s="156"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="122">
+      <c r="I22" s="141">
         <f>I20+I15</f>
         <v>0.67</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="124" t="s">
+      <c r="K22" s="143" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="35"/>
@@ -15647,14 +15722,14 @@
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="141"/>
+      <c r="F23" s="156"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="123"/>
+      <c r="I23" s="142"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="125"/>
+      <c r="K23" s="144"/>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15663,7 +15738,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="142"/>
+      <c r="F24" s="157"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -15691,12 +15766,12 @@
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="126" t="s">
+      <c r="F26" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
@@ -15707,12 +15782,12 @@
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="127" t="s">
+      <c r="F27" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="129"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="138"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
@@ -15723,10 +15798,10 @@
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="132"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="149"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
@@ -15737,10 +15812,10 @@
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="149"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
@@ -15751,28 +15826,28 @@
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="132"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="149"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="136" t="s">
+      <c r="A31" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="138" t="s">
+      <c r="B31" s="152"/>
+      <c r="C31" s="153" t="s">
         <v>902</v>
       </c>
-      <c r="D31" s="139"/>
+      <c r="D31" s="154"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="135"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="140"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
@@ -15793,12 +15868,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -15814,13 +15890,12 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -15885,65 +15960,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="195" t="s">
         <v>700</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="185" t="s">
         <v>683</v>
       </c>
-      <c r="D1" s="201"/>
-      <c r="E1" s="200" t="s">
+      <c r="D1" s="186"/>
+      <c r="E1" s="185" t="s">
         <v>684</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="200" t="s">
+      <c r="F1" s="186"/>
+      <c r="G1" s="185" t="s">
         <v>685</v>
       </c>
-      <c r="H1" s="201"/>
+      <c r="H1" s="186"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186"/>
+      <c r="A2" s="196"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="202" t="s">
+      <c r="D2" s="188"/>
+      <c r="E2" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="202" t="s">
+      <c r="F2" s="188"/>
+      <c r="G2" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="H2" s="203"/>
-      <c r="J2" s="188" t="s">
+      <c r="H2" s="188"/>
+      <c r="J2" s="198" t="s">
         <v>701</v>
       </c>
-      <c r="K2" s="189"/>
-      <c r="L2" s="190"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="200"/>
     </row>
     <row r="3" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="187"/>
+      <c r="A3" s="197"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="198">
+      <c r="C3" s="189">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),0.01))))</f>
-        <v>0.68</v>
-      </c>
-      <c r="D3" s="199"/>
-      <c r="E3" s="198">
+        <v>0.67</v>
+      </c>
+      <c r="D3" s="190"/>
+      <c r="E3" s="189">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),0.01))))</f>
-        <v>0.68</v>
-      </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="198">
+        <v>0.67</v>
+      </c>
+      <c r="F3" s="190"/>
+      <c r="G3" s="189">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),0.01))))</f>
-        <v>0.68</v>
-      </c>
-      <c r="H3" s="199"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="193"/>
+        <v>0.67</v>
+      </c>
+      <c r="H3" s="190"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="203"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -15963,18 +16038,18 @@
         <v>686</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="122" t="s">
         <v>687</v>
       </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="149" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="122" t="s">
         <v>688</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="149" t="s">
+      <c r="F5" s="124"/>
+      <c r="G5" s="122" t="s">
         <v>689</v>
       </c>
-      <c r="H5" s="151"/>
+      <c r="H5" s="124"/>
       <c r="J5" s="77" t="s">
         <v>702</v>
       </c>
@@ -15989,46 +16064,46 @@
         <v>0.67</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="195">
+      <c r="C6" s="192">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="195">
+      <c r="D6" s="193"/>
+      <c r="E6" s="192">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0</v>
       </c>
-      <c r="F6" s="196"/>
-      <c r="G6" s="195">
+      <c r="F6" s="193"/>
+      <c r="G6" s="192">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0</v>
       </c>
-      <c r="H6" s="196"/>
+      <c r="H6" s="193"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>4.3749999999999914E-2</v>
+        <v>0.55375000000000008</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
         <f>IF(J6 &gt; 0.05, 0, IF( J6 &gt; 0.02, 0.01, (IF(J6 &gt; 0.01, 0.02, 0.03))))</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197" t="s">
+      <c r="D7" s="194"/>
+      <c r="E7" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197" t="s">
+      <c r="F7" s="194"/>
+      <c r="G7" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H7" s="197"/>
+      <c r="H7" s="194"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
@@ -16202,7 +16277,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="143" t="s">
+      <c r="J12" s="131" t="s">
         <v>715</v>
       </c>
       <c r="K12" s="31"/>
@@ -16240,7 +16315,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="144"/>
+      <c r="J13" s="132"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>708</v>
@@ -16276,7 +16351,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="144"/>
+      <c r="J14" s="132"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>709</v>
@@ -16306,7 +16381,7 @@
         <f>SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="144"/>
+      <c r="J15" s="132"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>710</v>
@@ -16315,19 +16390,19 @@
     <row r="16" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="194" t="s">
+      <c r="C16" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194" t="s">
+      <c r="D16" s="191"/>
+      <c r="E16" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="191"/>
+      <c r="G16" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="J16" s="144"/>
+      <c r="H16" s="191"/>
+      <c r="J16" s="132"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>711</v>
@@ -16358,7 +16433,7 @@
       <c r="H17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="144"/>
+      <c r="J17" s="132"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>712</v>
@@ -16394,7 +16469,7 @@
         <f>B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="144"/>
+      <c r="J18" s="132"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>713</v>
@@ -16430,7 +16505,7 @@
         <f t="shared" ref="H19:H23" si="5">B19*G19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="145"/>
+      <c r="J19" s="133"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>714</v>
@@ -16588,18 +16663,18 @@
     <row r="25" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="194" t="s">
+      <c r="C25" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194" t="s">
+      <c r="D25" s="191"/>
+      <c r="E25" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194" t="s">
+      <c r="F25" s="191"/>
+      <c r="G25" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H25" s="194"/>
+      <c r="H25" s="191"/>
     </row>
     <row r="26" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -16841,18 +16916,18 @@
     <row r="34" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="194" t="s">
+      <c r="C34" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194" t="s">
+      <c r="D34" s="191"/>
+      <c r="E34" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194" t="s">
+      <c r="F34" s="191"/>
+      <c r="G34" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H34" s="194"/>
+      <c r="H34" s="191"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -17094,18 +17169,18 @@
     <row r="43" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="194" t="s">
+      <c r="C43" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D43" s="194"/>
-      <c r="E43" s="194" t="s">
+      <c r="D43" s="191"/>
+      <c r="E43" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194" t="s">
+      <c r="F43" s="191"/>
+      <c r="G43" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H43" s="194"/>
+      <c r="H43" s="191"/>
     </row>
     <row r="44" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -17347,18 +17422,18 @@
     <row r="52" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="194" t="s">
+      <c r="C52" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D52" s="194"/>
-      <c r="E52" s="194" t="s">
+      <c r="D52" s="191"/>
+      <c r="E52" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F52" s="194"/>
-      <c r="G52" s="194" t="s">
+      <c r="F52" s="191"/>
+      <c r="G52" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H52" s="194"/>
+      <c r="H52" s="191"/>
     </row>
     <row r="53" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -17599,27 +17674,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -17636,6 +17690,27 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17651,7 +17726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:F23"/>
     </sheetView>
   </sheetViews>
@@ -17667,54 +17742,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="164"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="163"/>
     </row>
     <row r="2" spans="1:6" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="167"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="160"/>
     </row>
     <row r="3" spans="1:6" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="170"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="158" t="s">
         <v>719</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="167"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="160"/>
     </row>
     <row r="5" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="173"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="169"/>
     </row>
     <row r="6" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
@@ -17743,10 +17818,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="169"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -17762,10 +17837,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="159"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -17781,10 +17856,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="175"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -17800,10 +17875,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="175"/>
+      <c r="B11" s="173"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -17819,10 +17894,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="175"/>
+      <c r="B12" s="173"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -17838,10 +17913,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="159"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -17857,10 +17932,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="158" t="s">
+      <c r="A14" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="159"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -17876,10 +17951,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="161"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -17896,11 +17971,11 @@
     </row>
     <row r="16" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -17919,88 +17994,93 @@
       <c r="A18" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="164"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="163"/>
     </row>
     <row r="19" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="165" t="s">
+      <c r="B19" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="167"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="160"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="165" t="s">
+      <c r="B20" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="167"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="160"/>
     </row>
     <row r="21" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="167"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
     </row>
     <row r="22" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="165" t="s">
+      <c r="B22" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="167"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
     </row>
     <row r="23" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="165" t="s">
+      <c r="B23" s="158" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="167"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="160"/>
     </row>
     <row r="24" spans="1:6" ht="42.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="165" t="s">
+      <c r="B24" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="167"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -18017,11 +18097,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18037,8 +18112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18080,12 +18155,12 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="176" t="s">
         <v>878</v>
       </c>
       <c r="D2" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Required")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Required")*(D$10:D$250="Partial"))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Required")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Required")*(E$10:E$250="Partial"))</f>
@@ -18103,10 +18178,10 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
-        <v>11.5</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Partial"))</f>
@@ -18124,10 +18199,10 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -18145,10 +18220,10 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -18166,10 +18241,10 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Partial"))</f>
@@ -18187,10 +18262,10 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="181"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Partial"))</f>
@@ -18208,7 +18283,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>1</v>
@@ -18223,11 +18298,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="182"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -18242,10 +18317,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="181" t="s">
         <v>718</v>
       </c>
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>860</v>
       </c>
@@ -18368,10 +18443,10 @@
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="181" t="s">
         <v>732</v>
       </c>
-      <c r="B17" s="177"/>
+      <c r="B17" s="182"/>
       <c r="C17" s="8" t="s">
         <v>862</v>
       </c>
@@ -18396,7 +18471,7 @@
         <v>735</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>73</v>
@@ -18414,7 +18489,7 @@
         <v>736</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>73</v>
@@ -18432,7 +18507,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>73</v>
@@ -18450,7 +18525,7 @@
         <v>103</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>73</v>
@@ -18468,7 +18543,7 @@
         <v>737</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>73</v>
@@ -18486,7 +18561,7 @@
         <v>738</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>73</v>
@@ -18506,7 +18581,7 @@
         <v>739</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>73</v>
@@ -18526,7 +18601,7 @@
         <v>727</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>73</v>
@@ -18544,7 +18619,7 @@
         <v>740</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>73</v>
@@ -18582,7 +18657,7 @@
         <v>741</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>73</v>
@@ -18590,10 +18665,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="183" t="s">
         <v>733</v>
       </c>
-      <c r="B29" s="179"/>
+      <c r="B29" s="184"/>
       <c r="C29" s="8" t="s">
         <v>886</v>
       </c>
@@ -19076,10 +19151,10 @@
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="176" t="s">
+      <c r="A56" s="181" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="177"/>
+      <c r="B56" s="182"/>
       <c r="C56" s="8" t="s">
         <v>88</v>
       </c>
@@ -19104,7 +19179,7 @@
         <v>115</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>73</v>
@@ -19122,7 +19197,7 @@
         <v>876</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>73</v>
@@ -19140,7 +19215,7 @@
         <v>118</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>73</v>
@@ -19158,7 +19233,7 @@
         <v>120</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>73</v>
@@ -19176,7 +19251,7 @@
         <v>868</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>73</v>
@@ -19194,7 +19269,7 @@
         <v>869</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>73</v>
@@ -19316,10 +19391,10 @@
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="176" t="s">
+      <c r="A69" s="181" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="177"/>
+      <c r="B69" s="182"/>
       <c r="C69" s="8" t="s">
         <v>88</v>
       </c>
@@ -19380,7 +19455,7 @@
         <v>141</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>73</v>
@@ -19398,7 +19473,7 @@
         <v>143</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>73</v>
@@ -19439,7 +19514,9 @@
       <c r="E75" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="60"/>
+      <c r="F75" s="60" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="69" t="s">
@@ -19452,7 +19529,7 @@
         <v>149</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>73</v>
@@ -19478,10 +19555,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="176" t="s">
+      <c r="A78" s="181" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="177"/>
+      <c r="B78" s="182"/>
       <c r="C78" s="8" t="s">
         <v>88</v>
       </c>
@@ -19592,10 +19669,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="176" t="s">
+      <c r="A84" s="181" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="177"/>
+      <c r="B84" s="182"/>
       <c r="C84" s="8" t="s">
         <v>88</v>
       </c>
@@ -19842,10 +19919,10 @@
       <c r="F96" s="60"/>
     </row>
     <row r="97" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="176" t="s">
+      <c r="A97" s="181" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="177"/>
+      <c r="B97" s="182"/>
       <c r="C97" s="8" t="s">
         <v>88</v>
       </c>
@@ -19936,10 +20013,10 @@
       <c r="F101" s="60"/>
     </row>
     <row r="102" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="176" t="s">
+      <c r="A102" s="181" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="177"/>
+      <c r="B102" s="182"/>
       <c r="C102" s="8" t="s">
         <v>88</v>
       </c>
@@ -20084,10 +20161,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="176" t="s">
+      <c r="A110" s="181" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="177"/>
+      <c r="B110" s="182"/>
       <c r="C110" s="8" t="s">
         <v>88</v>
       </c>
@@ -20112,7 +20189,7 @@
         <v>207</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>73</v>
@@ -20130,7 +20207,7 @@
         <v>209</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>73</v>
@@ -20148,7 +20225,7 @@
         <v>211</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>73</v>
@@ -20156,10 +20233,10 @@
       <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="176" t="s">
+      <c r="A114" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="177"/>
+      <c r="B114" s="182"/>
       <c r="C114" s="8" t="s">
         <v>88</v>
       </c>
@@ -20220,18 +20297,20 @@
         <v>728</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F117" s="60"/>
+      <c r="F117" s="60" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="118" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="176" t="s">
+      <c r="A118" s="181" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="177"/>
+      <c r="B118" s="182"/>
       <c r="C118" s="8" t="s">
         <v>816</v>
       </c>
@@ -20391,11 +20470,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -20405,6 +20479,11 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A14:A31 A95:A107 A56:A80 A82:A87">
     <cfRule type="beginsWith" dxfId="746" priority="306" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -21396,8 +21475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21439,7 +21518,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="176" t="s">
         <v>854</v>
       </c>
       <c r="D2" s="66">
@@ -21462,7 +21541,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -21483,7 +21562,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -21504,7 +21583,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>6</v>
@@ -21525,7 +21604,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -21546,7 +21625,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="181"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>13</v>
@@ -21567,7 +21646,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>8</v>
@@ -21582,11 +21661,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="182"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -21601,10 +21680,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="181" t="s">
         <v>803</v>
       </c>
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>855</v>
       </c>
@@ -21691,10 +21770,10 @@
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="181" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="8" t="s">
         <v>88</v>
       </c>
@@ -21845,10 +21924,10 @@
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="181" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="177"/>
+      <c r="B23" s="182"/>
       <c r="C23" s="8" t="s">
         <v>88</v>
       </c>
@@ -21997,10 +22076,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="176" t="s">
+      <c r="A31" s="181" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="177"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="8" t="s">
         <v>88</v>
       </c>
@@ -22497,10 +22576,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="176" t="s">
+      <c r="A57" s="181" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="177"/>
+      <c r="B57" s="182"/>
       <c r="C57" s="73" t="s">
         <v>825</v>
       </c>
@@ -22746,7 +22825,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="119" t="s">
         <v>134</v>
       </c>
@@ -22763,7 +22842,7 @@
         <v>73</v>
       </c>
       <c r="F70" s="60" t="s">
-        <v>875</v>
+        <v>940</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -22905,10 +22984,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="176" t="s">
+      <c r="A78" s="181" t="s">
         <v>299</v>
       </c>
-      <c r="B78" s="177"/>
+      <c r="B78" s="182"/>
       <c r="C78" s="8" t="s">
         <v>88</v>
       </c>
@@ -23904,7 +23983,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="176" t="s">
         <v>823</v>
       </c>
       <c r="D2" s="66">
@@ -23927,7 +24006,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23948,7 +24027,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -23969,7 +24048,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>5</v>
@@ -23990,7 +24069,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -24011,7 +24090,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="181"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>6</v>
@@ -24032,7 +24111,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>9</v>
@@ -24047,11 +24126,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="182"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -24066,10 +24145,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="181" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>88</v>
       </c>
@@ -24292,10 +24371,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="181" t="s">
         <v>528</v>
       </c>
-      <c r="B22" s="177"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="8" t="s">
         <v>88</v>
       </c>
@@ -24454,10 +24533,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="176" t="s">
+      <c r="A31" s="181" t="s">
         <v>544</v>
       </c>
-      <c r="B31" s="177"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="8" t="s">
         <v>88</v>
       </c>
@@ -24682,10 +24761,10 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="176" t="s">
+      <c r="A43" s="181" t="s">
         <v>655</v>
       </c>
-      <c r="B43" s="177"/>
+      <c r="B43" s="182"/>
       <c r="C43" s="8" t="s">
         <v>88</v>
       </c>
@@ -24995,7 +25074,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="176" t="s">
         <v>379</v>
       </c>
       <c r="D2" s="66">
@@ -25018,7 +25097,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -25039,7 +25118,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -25060,7 +25139,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -25081,7 +25160,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -25102,7 +25181,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="181"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>7</v>
@@ -25123,7 +25202,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>5</v>
@@ -25138,11 +25217,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="182"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>3</v>
@@ -25157,10 +25236,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="181" t="s">
         <v>380</v>
       </c>
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>88</v>
       </c>
@@ -25267,10 +25346,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="176" t="s">
+      <c r="A16" s="181" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="177"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="8" t="s">
         <v>88</v>
       </c>
@@ -25377,10 +25456,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="181" t="s">
         <v>402</v>
       </c>
-      <c r="B22" s="177"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="8" t="s">
         <v>819</v>
       </c>
@@ -25505,10 +25584,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="181" t="s">
         <v>415</v>
       </c>
-      <c r="B29" s="177"/>
+      <c r="B29" s="182"/>
       <c r="C29" s="8" t="s">
         <v>817</v>
       </c>
@@ -25653,10 +25732,10 @@
       <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="176" t="s">
+      <c r="A37" s="181" t="s">
         <v>430</v>
       </c>
-      <c r="B37" s="177"/>
+      <c r="B37" s="182"/>
       <c r="C37" s="8" t="s">
         <v>818</v>
       </c>
@@ -25779,10 +25858,10 @@
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="176" t="s">
+      <c r="A44" s="181" t="s">
         <v>443</v>
       </c>
-      <c r="B44" s="177"/>
+      <c r="B44" s="182"/>
       <c r="C44" s="8" t="s">
         <v>88</v>
       </c>
@@ -26430,8 +26509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="B40" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26473,7 +26552,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="176" t="s">
         <v>468</v>
       </c>
       <c r="D2" s="66">
@@ -26496,7 +26575,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -26517,7 +26596,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -26538,7 +26617,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>7</v>
@@ -26559,7 +26638,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>1</v>
@@ -26580,7 +26659,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="181"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>13</v>
@@ -26601,7 +26680,7 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>5</v>
@@ -26616,11 +26695,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="182"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>2</v>
@@ -26635,10 +26714,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="181" t="s">
         <v>469</v>
       </c>
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="8" t="s">
         <v>88</v>
       </c>
@@ -26786,7 +26865,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="118" t="s">
         <v>97</v>
       </c>
@@ -26802,7 +26881,9 @@
       <c r="E18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="60" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="118" t="s">
@@ -26820,7 +26901,9 @@
       <c r="E19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="60" t="s">
+        <v>959</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="119" t="s">
@@ -26842,7 +26925,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="119" t="s">
         <v>134</v>
       </c>
@@ -26859,7 +26942,7 @@
         <v>73</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>875</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26962,7 +27045,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="120" t="s">
         <v>218</v>
       </c>
@@ -26978,7 +27061,9 @@
       <c r="E27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="60"/>
+      <c r="F27" s="60" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="120" t="s">
@@ -26999,10 +27084,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="181" t="s">
         <v>505</v>
       </c>
-      <c r="B29" s="177"/>
+      <c r="B29" s="182"/>
       <c r="C29" s="8" t="s">
         <v>814</v>
       </c>
@@ -27090,7 +27175,9 @@
       <c r="E33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="60"/>
+      <c r="F33" s="60" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="118" t="s">
@@ -27108,7 +27195,9 @@
       <c r="E34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="60"/>
+      <c r="F34" s="60" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="118" t="s">
@@ -27126,7 +27215,9 @@
       <c r="E35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="60"/>
+      <c r="F35" s="60" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="119" t="s">
@@ -27219,10 +27310,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="181" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="177"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="8" t="s">
         <v>88</v>
       </c>
@@ -27383,10 +27474,10 @@
       <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="176" t="s">
+      <c r="A50" s="181" t="s">
         <v>583</v>
       </c>
-      <c r="B50" s="177"/>
+      <c r="B50" s="182"/>
       <c r="C50" s="73" t="s">
         <v>815</v>
       </c>
@@ -27435,7 +27526,7 @@
         <v>73</v>
       </c>
       <c r="F52" s="60" t="s">
-        <v>873</v>
+        <v>954</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27472,7 +27563,9 @@
       <c r="E54" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="60"/>
+      <c r="F54" s="60" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="55" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="118" t="s">
@@ -27508,9 +27601,11 @@
       <c r="E56" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="60"/>
-    </row>
-    <row r="57" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="60" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="118" t="s">
         <v>97</v>
       </c>
@@ -27526,7 +27621,9 @@
       <c r="E57" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="60"/>
+      <c r="F57" s="60" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="58" spans="1:6" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="119" t="s">
@@ -27921,8 +28018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27964,7 +28061,7 @@
       <c r="B2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="176" t="s">
         <v>604</v>
       </c>
       <c r="D2" s="66">
@@ -27987,7 +28084,7 @@
       <c r="B3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -28008,7 +28105,7 @@
       <c r="B4" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -28029,7 +28126,7 @@
       <c r="B5" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -28050,7 +28147,7 @@
       <c r="B6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -28071,7 +28168,7 @@
       <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="181"/>
+      <c r="C7" s="177"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>8</v>
@@ -28092,10 +28189,10 @@
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(E$10:E$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(E$10:E$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(E$10:E$240="Partial"))</f>
@@ -28107,11 +28204,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="182"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -28126,10 +28223,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="181" t="s">
         <v>605</v>
       </c>
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="73" t="s">
         <v>808</v>
       </c>
@@ -28201,7 +28298,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
         <v>109</v>
       </c>
@@ -28218,7 +28315,7 @@
         <v>73</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>873</v>
+        <v>943</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -28237,9 +28334,11 @@
       <c r="E15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="60"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="60" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>97</v>
       </c>
@@ -28255,7 +28354,9 @@
       <c r="E16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="60"/>
+      <c r="F16" s="60" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
@@ -28293,7 +28394,9 @@
       <c r="E18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="60" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="71" t="s">
@@ -28311,7 +28414,9 @@
       <c r="E19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="60" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72" t="s">
@@ -28350,10 +28455,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="181" t="s">
         <v>628</v>
       </c>
-      <c r="B22" s="177"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="8" t="s">
         <v>88</v>
       </c>
@@ -28438,7 +28543,7 @@
         <v>73</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>873</v>
+        <v>947</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -28457,7 +28562,9 @@
       <c r="E27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="60"/>
+      <c r="F27" s="60" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="69" t="s">
@@ -28475,9 +28582,11 @@
       <c r="E28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="60"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="60" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
         <v>97</v>
       </c>
@@ -28493,9 +28602,11 @@
       <c r="E29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="60"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="60" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="69" t="s">
         <v>97</v>
       </c>
@@ -28511,7 +28622,9 @@
       <c r="E30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="60"/>
+      <c r="F30" s="60" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
@@ -28570,10 +28683,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="176" t="s">
+      <c r="A34" s="181" t="s">
         <v>804</v>
       </c>
-      <c r="B34" s="177"/>
+      <c r="B34" s="182"/>
       <c r="C34" s="8" t="s">
         <v>809</v>
       </c>
@@ -28698,10 +28811,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="181" t="s">
         <v>674</v>
       </c>
-      <c r="B41" s="177"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="8" t="s">
         <v>88</v>
       </c>
@@ -28749,9 +28862,11 @@
       <c r="E43" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="60"/>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="60" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="69" t="s">
         <v>97</v>
       </c>
@@ -28767,7 +28882,9 @@
       <c r="E44" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="60"/>
+      <c r="F44" s="60" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="71" t="s">
@@ -28780,7 +28897,7 @@
         <v>681</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>73</v>
@@ -29134,65 +29251,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="195" t="s">
         <v>699</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="185" t="s">
         <v>683</v>
       </c>
-      <c r="D1" s="201"/>
-      <c r="E1" s="200" t="s">
+      <c r="D1" s="186"/>
+      <c r="E1" s="185" t="s">
         <v>684</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="200" t="s">
+      <c r="F1" s="186"/>
+      <c r="G1" s="185" t="s">
         <v>685</v>
       </c>
-      <c r="H1" s="201"/>
+      <c r="H1" s="186"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186"/>
+      <c r="A2" s="196"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="202" t="s">
+      <c r="D2" s="188"/>
+      <c r="E2" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="202" t="s">
+      <c r="F2" s="188"/>
+      <c r="G2" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="H2" s="203"/>
-      <c r="J2" s="188" t="s">
+      <c r="H2" s="188"/>
+      <c r="J2" s="198" t="s">
         <v>701</v>
       </c>
-      <c r="K2" s="189"/>
-      <c r="L2" s="190"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="200"/>
     </row>
     <row r="3" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="187"/>
+      <c r="A3" s="197"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="198">
+      <c r="C3" s="189">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),0.01))))</f>
-        <v>0.16</v>
-      </c>
-      <c r="D3" s="199"/>
-      <c r="E3" s="198">
+        <v>0.99</v>
+      </c>
+      <c r="D3" s="190"/>
+      <c r="E3" s="189">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),0.01))))</f>
-        <v>0.71</v>
-      </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="198">
+        <v>1</v>
+      </c>
+      <c r="F3" s="190"/>
+      <c r="G3" s="189">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),0.01))))</f>
-        <v>0.96</v>
-      </c>
-      <c r="H3" s="199"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="193"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="190"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="203"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -29209,19 +29326,19 @@
         <v>686</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="122" t="s">
         <v>687</v>
       </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="149" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="122" t="s">
         <v>688</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="149" t="s">
+      <c r="F5" s="124"/>
+      <c r="G5" s="122" t="s">
         <v>689</v>
       </c>
-      <c r="H5" s="151"/>
-      <c r="J5" s="143" t="s">
+      <c r="H5" s="124"/>
+      <c r="J5" s="131" t="s">
         <v>715</v>
       </c>
       <c r="K5" s="31"/>
@@ -29235,22 +29352,22 @@
         <v>0.67</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="195">
+      <c r="C6" s="192">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>-0.50624999999999987</v>
-      </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="195">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="D6" s="193"/>
+      <c r="E6" s="192">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>4.3749999999999914E-2</v>
-      </c>
-      <c r="F6" s="196"/>
-      <c r="G6" s="195">
+        <v>0.55375000000000008</v>
+      </c>
+      <c r="F6" s="193"/>
+      <c r="G6" s="192">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>0.35875000000000001</v>
-      </c>
-      <c r="H6" s="196"/>
-      <c r="J6" s="144"/>
+        <v>0.57125000000000004</v>
+      </c>
+      <c r="H6" s="193"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>708</v>
@@ -29259,19 +29376,19 @@
     <row r="7" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197" t="s">
+      <c r="D7" s="194"/>
+      <c r="E7" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197" t="s">
+      <c r="F7" s="194"/>
+      <c r="G7" s="194" t="s">
         <v>692</v>
       </c>
-      <c r="H7" s="197"/>
-      <c r="J7" s="144"/>
+      <c r="H7" s="194"/>
+      <c r="J7" s="132"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>709</v>
@@ -29302,7 +29419,7 @@
       <c r="H8" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="144"/>
+      <c r="J8" s="132"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>710</v>
@@ -29315,30 +29432,30 @@
       </c>
       <c r="B9" s="57">
         <f>TCRs!$D$2</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9" s="81">
         <v>-0.1</v>
       </c>
       <c r="D9" s="96">
         <f t="shared" ref="D9:D14" si="0">B9*C9</f>
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="E9" s="83">
         <v>-0.05</v>
       </c>
       <c r="F9" s="96">
         <f t="shared" ref="F9:F14" si="1">B9*E9</f>
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="83">
         <v>-0.02</v>
       </c>
       <c r="H9" s="96">
         <f>B9*G9</f>
-        <v>-0.16</v>
-      </c>
-      <c r="J9" s="144"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="132"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>711</v>
@@ -29351,30 +29468,30 @@
       </c>
       <c r="B10" s="11">
         <f>TCRs!$D$3</f>
-        <v>11.5</v>
+        <v>1.5</v>
       </c>
       <c r="C10" s="82">
         <v>-0.02</v>
       </c>
       <c r="D10" s="97">
         <f t="shared" si="0"/>
-        <v>-0.23</v>
+        <v>-0.03</v>
       </c>
       <c r="E10" s="84">
         <v>-0.01</v>
       </c>
       <c r="F10" s="97">
         <f t="shared" si="1"/>
-        <v>-0.115</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="G10" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="97">
         <f t="shared" ref="H10:H14" si="2">B10*G10</f>
-        <v>-5.7500000000000002E-2</v>
-      </c>
-      <c r="J10" s="144"/>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J10" s="132"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>712</v>
@@ -29387,30 +29504,30 @@
       </c>
       <c r="B11" s="11">
         <f>TCRs!$D$4</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="82">
         <v>-0.01</v>
       </c>
       <c r="D11" s="97">
         <f t="shared" si="0"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="E11" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="97">
         <f t="shared" si="1"/>
-        <v>-3.5000000000000003E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="G11" s="80">
         <v>-2.5000000000000001E-3</v>
       </c>
       <c r="H11" s="97">
         <f t="shared" si="2"/>
-        <v>-1.7500000000000002E-2</v>
-      </c>
-      <c r="J11" s="144"/>
+        <v>-0.01</v>
+      </c>
+      <c r="J11" s="132"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>713</v>
@@ -29423,30 +29540,30 @@
       </c>
       <c r="B12" s="11">
         <f>TCRs!$D$7</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D12" s="97">
         <f t="shared" si="0"/>
-        <v>3.2500000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F12" s="97">
         <f t="shared" si="1"/>
-        <v>3.2500000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G12" s="101">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H12" s="97">
         <f t="shared" si="2"/>
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="J12" s="145"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J12" s="133"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>714</v>
@@ -29522,38 +29639,38 @@
       </c>
       <c r="D15" s="99">
         <f>SUM(D9:D14)</f>
-        <v>-1.06</v>
+        <v>-2.7500000000000004E-2</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="99">
         <f>SUM(F9:F14)</f>
-        <v>-0.51000000000000012</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="99">
         <f>SUM(H9:H14)</f>
-        <v>-0.19499999999999998</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="194" t="s">
+      <c r="C16" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194" t="s">
+      <c r="D16" s="191"/>
+      <c r="E16" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="191"/>
+      <c r="G16" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H16" s="194"/>
+      <c r="H16" s="191"/>
     </row>
     <row r="17" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -29795,18 +29912,18 @@
     <row r="25" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="194" t="s">
+      <c r="C25" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194" t="s">
+      <c r="D25" s="191"/>
+      <c r="E25" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194" t="s">
+      <c r="F25" s="191"/>
+      <c r="G25" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H25" s="194"/>
+      <c r="H25" s="191"/>
     </row>
     <row r="26" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -30048,18 +30165,18 @@
     <row r="34" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="194" t="s">
+      <c r="C34" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194" t="s">
+      <c r="D34" s="191"/>
+      <c r="E34" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194" t="s">
+      <c r="F34" s="191"/>
+      <c r="G34" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H34" s="194"/>
+      <c r="H34" s="191"/>
     </row>
     <row r="35" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -30301,18 +30418,18 @@
     <row r="43" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="194" t="s">
+      <c r="C43" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D43" s="194"/>
-      <c r="E43" s="194" t="s">
+      <c r="D43" s="191"/>
+      <c r="E43" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194" t="s">
+      <c r="F43" s="191"/>
+      <c r="G43" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H43" s="194"/>
+      <c r="H43" s="191"/>
     </row>
     <row r="44" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -30554,18 +30671,18 @@
     <row r="52" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="194" t="s">
+      <c r="C52" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="D52" s="194"/>
-      <c r="E52" s="194" t="s">
+      <c r="D52" s="191"/>
+      <c r="E52" s="191" t="s">
         <v>691</v>
       </c>
-      <c r="F52" s="194"/>
-      <c r="G52" s="194" t="s">
+      <c r="F52" s="191"/>
+      <c r="G52" s="191" t="s">
         <v>692</v>
       </c>
-      <c r="H52" s="194"/>
+      <c r="H52" s="191"/>
     </row>
     <row r="53" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -30724,28 +30841,28 @@
       </c>
       <c r="B58" s="11">
         <f>ACRs!$D$8</f>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="C58" s="121">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D58" s="97">
         <f t="shared" si="15"/>
-        <v>2.6249999999999999E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="E58" s="121">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F58" s="97">
         <f t="shared" si="16"/>
-        <v>2.6249999999999999E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="G58" s="121">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H58" s="97">
         <f t="shared" si="17"/>
-        <v>2.6249999999999999E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30787,45 +30904,25 @@
       </c>
       <c r="D60" s="99">
         <f>SUM(D54:D59)</f>
-        <v>6.6250000000000003E-2</v>
+        <v>5.8749999999999997E-2</v>
       </c>
       <c r="E60" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="99">
         <f>SUM(F54:F59)</f>
-        <v>6.6250000000000003E-2</v>
+        <v>5.8749999999999997E-2</v>
       </c>
       <c r="G60" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="99">
         <f>SUM(H54:H59)</f>
-        <v>6.6250000000000003E-2</v>
+        <v>5.8749999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -30842,6 +30939,26 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
